--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>REZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1179000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1304000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1226000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1242000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1216000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1266000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1200000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1196000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1165000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1209000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1152000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1096000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>937000</v>
+        <v>892000</v>
       </c>
       <c r="E9" s="3">
-        <v>946000</v>
+        <v>1010000</v>
       </c>
       <c r="F9" s="3">
+        <v>932000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>933000</v>
+      </c>
+      <c r="H9" s="3">
         <v>903000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>936000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>853000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>850000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>822000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>848000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>816000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>788000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>289000</v>
+        <v>287000</v>
       </c>
       <c r="E10" s="3">
-        <v>296000</v>
+        <v>294000</v>
       </c>
       <c r="F10" s="3">
+        <v>294000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>309000</v>
+      </c>
+      <c r="H10" s="3">
         <v>313000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>330000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>347000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>346000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>343000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>361000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>336000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>308000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,31 +963,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>40000</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1145000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1167000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1131000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1208000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1218000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1190000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1087000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1188000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1095000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1057000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F18" s="3">
         <v>59000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>42000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>85000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>58000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-18000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>78000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>21000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>57000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>39000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,105 +1176,119 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-35000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-35000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>16000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1000</v>
       </c>
       <c r="L20" s="3">
         <v>1000</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F21" s="3">
         <v>43000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>27000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>117000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>75000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>21000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>96000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>39000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>75000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>56000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="E22" s="3">
         <v>18000</v>
       </c>
       <c r="F22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H22" s="3">
         <v>17000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>20000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F23" s="3">
         <v>8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>84000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>38000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>79000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>22000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>58000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>39000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>339100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-329000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-25000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>34000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>18000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>35000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>23000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F26" s="3">
         <v>8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>48000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-301100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>311000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>30000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>45000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>23000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>16000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F27" s="3">
         <v>8000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>48000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-301100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>311000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>30000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>45000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>23000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>16000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1467,32 +1588,38 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>317100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>3000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-453000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F32" s="3">
         <v>35000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>35000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-16000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1000</v>
       </c>
       <c r="L32" s="3">
         <v>-1000</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F33" s="3">
         <v>8000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>48000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>16000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>311000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>33000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>45000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-449000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>23000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>16000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F35" s="3">
         <v>8000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>48000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>16000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>311000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>33000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>45000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-449000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>23000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>16000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>122000</v>
+      </c>
+      <c r="F41" s="3">
         <v>132000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>142000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>212000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>265000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>184000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>93000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>75000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,160 +2049,190 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>817000</v>
+      </c>
+      <c r="F43" s="3">
         <v>845000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>835000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>838000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>821000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>809000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>766000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>756000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="F44" s="3">
         <v>729000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>722000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>701000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>628000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>603000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>523000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>481000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F45" s="3">
         <v>134000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>147000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>111000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>95000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>72000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>74000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>65000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1993000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1785000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1840000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1846000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1862000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1809000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1668000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1456000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1377000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2269,102 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>453000</v>
+      </c>
+      <c r="F48" s="3">
         <v>436000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>436000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>413000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>276000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>264000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>267000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2612000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2769000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2757000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2777000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2772000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2767000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2776000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2766000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2810000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>121000</v>
+      </c>
+      <c r="F52" s="3">
         <v>100000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>101000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>97000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>96000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>22000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>21000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>28000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5287000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5128000</v>
+      </c>
+      <c r="F54" s="3">
         <v>5133000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5160000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5144000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4972000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4742000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4507000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4482000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,66 +2617,74 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>906000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>920000</v>
+      </c>
+      <c r="F57" s="3">
         <v>932000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1009000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1013000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>964000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>850000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>774000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>712000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>88000</v>
+        <v>382000</v>
       </c>
       <c r="E58" s="3">
         <v>22000</v>
       </c>
       <c r="F58" s="3">
-        <v>22000</v>
+        <v>88000</v>
       </c>
       <c r="G58" s="3">
         <v>22000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>22000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2434,105 +2701,123 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>552000</v>
+      </c>
+      <c r="F59" s="3">
         <v>531000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>528000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>524000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>503000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>550000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>459000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>418000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1755000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1551000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1559000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1559000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1489000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1400000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1233000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1130000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1165000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1169000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1174000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1179000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2548,46 +2833,58 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>874000</v>
+      </c>
+      <c r="F62" s="3">
         <v>844000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>839000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>819000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>771000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>657000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>794000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>763000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3766000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3526000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3560000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3567000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3552000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3439000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2057000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2027000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1893000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,29 +3247,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F72" s="3">
         <v>47000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>39000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>50000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1573000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1593000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1592000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1533000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2685000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2480000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2589000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F81" s="3">
         <v>8000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>48000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>16000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>311000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>33000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>45000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-449000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>23000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>16000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F83" s="3">
         <v>19000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>20000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>17000</v>
       </c>
       <c r="H83" s="3">
         <v>16000</v>
       </c>
       <c r="I83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K83" s="3">
         <v>13000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>20000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>17000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>17000</v>
       </c>
       <c r="M83" s="3">
         <v>17000</v>
       </c>
       <c r="N83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>93000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-33000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-27000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>87000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>117000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>132000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>126000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-143000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>111000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>30000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-28000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-23000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-15000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-40000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-15000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-28000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-34000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-21000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-18000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-39000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-13000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-9000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4318,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="F100" s="3">
         <v>53000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-8000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-23000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>19000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>15000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-102000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-99000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>157000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-88000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-20000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-70000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-53000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>81000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>91000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>18000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>19000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>REZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1179000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1304000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1226000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1242000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1216000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1266000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1196000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1165000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1209000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1152000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1096000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>789000</v>
+      </c>
+      <c r="E9" s="3">
         <v>892000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1010000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>932000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>933000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>903000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>936000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>853000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>850000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>822000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>848000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>816000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>788000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E10" s="3">
         <v>287000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>294000</v>
       </c>
       <c r="F10" s="3">
         <v>294000</v>
       </c>
       <c r="G10" s="3">
+        <v>294000</v>
+      </c>
+      <c r="H10" s="3">
         <v>309000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>313000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>330000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>347000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>346000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>343000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>361000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>336000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>308000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,34 +986,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>40000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1035000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1145000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1232000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1167000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1131000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1208000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1218000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1190000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1087000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1188000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1095000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1057000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>34000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>72000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>59000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>85000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>58000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>57000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,37 +1211,38 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-42000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-35000</v>
       </c>
       <c r="G20" s="3">
         <v>-35000</v>
       </c>
       <c r="H20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1000</v>
       </c>
       <c r="M20" s="3">
         <v>1000</v>
@@ -1217,81 +1251,87 @@
         <v>1000</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E21" s="3">
         <v>13000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>43000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>117000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>75000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>96000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>39000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>75000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>56000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E22" s="3">
         <v>17000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>84000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>38000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>79000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>58000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>339100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-329000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-301100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>311000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>16000</v>
       </c>
       <c r="P26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-301100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>311000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>16000</v>
       </c>
       <c r="P27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,32 +1655,35 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>317100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>3000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-453000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,37 +1773,40 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E32" s="3">
         <v>42000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>64000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>35000</v>
       </c>
       <c r="G32" s="3">
         <v>35000</v>
       </c>
       <c r="H32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1000</v>
       </c>
       <c r="M32" s="3">
         <v>-1000</v>
@@ -1745,57 +1815,63 @@
         <v>-1000</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>48000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>311000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>33000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-449000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>16000</v>
       </c>
       <c r="P33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>48000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>311000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>33000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-449000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>16000</v>
       </c>
       <c r="P35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,41 +2053,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E41" s="3">
         <v>338000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>132000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>142000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>212000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>265000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>184000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>93000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>75000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,41 +2145,44 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E43" s="3">
         <v>820000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>817000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>845000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>835000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>838000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>821000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>809000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>766000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>756000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2099,41 +2192,44 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>671000</v>
+        <v>614000</v>
       </c>
       <c r="E44" s="3">
         <v>671000</v>
       </c>
       <c r="F44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="G44" s="3">
         <v>729000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>722000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>701000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>628000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>603000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>523000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>481000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2143,41 +2239,44 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E45" s="3">
         <v>164000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>175000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>134000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>147000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>111000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>95000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>72000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>74000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,41 +2286,44 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1843000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1993000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1785000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1840000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1846000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1862000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1809000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1668000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1456000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1377000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,41 +2380,44 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E48" s="3">
         <v>433000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>453000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>436000</v>
       </c>
       <c r="G48" s="3">
         <v>436000</v>
       </c>
       <c r="H48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="I48" s="3">
         <v>413000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>276000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>264000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>267000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,41 +2427,44 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2638000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2612000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2769000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2757000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2777000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2772000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2767000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2776000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2766000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2810000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,41 +2568,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E52" s="3">
         <v>249000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>121000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>101000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>97000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>96000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +2662,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5166000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5287000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5128000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5133000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5160000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5144000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4972000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4742000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4507000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4482000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2749,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>811000</v>
+      </c>
+      <c r="E57" s="3">
         <v>906000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>920000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>932000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1009000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1013000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>964000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>850000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>774000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>712000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,22 +2794,25 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E58" s="3">
         <v>382000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>88000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>22000</v>
       </c>
       <c r="H58" s="3">
         <v>22000</v>
@@ -2686,8 +2820,8 @@
       <c r="I58" s="3">
         <v>22000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>22000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2707,41 +2841,44 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>564000</v>
+      </c>
+      <c r="E59" s="3">
         <v>467000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>552000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>531000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>528000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>524000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>503000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>550000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>459000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>418000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2751,41 +2888,44 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1662000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1755000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1494000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1559000</v>
       </c>
       <c r="H60" s="3">
         <v>1559000</v>
       </c>
       <c r="I60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="J60" s="3">
         <v>1489000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1233000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1130000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2795,32 +2935,35 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1149000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1158000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1165000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1169000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1174000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1179000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,41 +2982,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>998000</v>
+      </c>
+      <c r="E62" s="3">
         <v>862000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>874000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>844000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>839000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>819000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>771000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>657000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>794000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>763000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3170,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3671000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3766000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3526000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3560000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3567000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3552000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3439000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2057000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2027000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1893000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3424,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>47000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>39000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,41 +3612,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1495000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1521000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1602000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1573000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1593000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1592000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1533000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2685000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2480000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2589000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>48000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>311000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>33000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-449000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>16000</v>
       </c>
       <c r="P81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,31 +3836,31 @@
         <v>21000</v>
       </c>
       <c r="E83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F83" s="3">
         <v>25000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>17000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>17000</v>
       </c>
       <c r="N83" s="3">
         <v>17000</v>
@@ -3670,10 +3869,13 @@
         <v>17000</v>
       </c>
       <c r="P83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-74000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>93000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>117000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>132000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>126000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-143000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>111000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-39000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E100" s="3">
         <v>349000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-75000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>53000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-102000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-99000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>157000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-88000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-20000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>2000</v>
       </c>
       <c r="O101" s="3">
         <v>2000</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E102" s="3">
         <v>216000</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-10000</v>
       </c>
       <c r="F102" s="3">
         <v>-10000</v>
       </c>
       <c r="G102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-70000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-53000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>81000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>91000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>REZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1362000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1029000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1179000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1304000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1226000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1242000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1216000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1266000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1196000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1165000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1209000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1152000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1096000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>990000</v>
+      </c>
+      <c r="E9" s="3">
         <v>789000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>892000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1010000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>932000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>933000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>903000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>936000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>853000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>850000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>822000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>848000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>816000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>788000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E10" s="3">
         <v>240000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>287000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>294000</v>
       </c>
       <c r="G10" s="3">
         <v>294000</v>
       </c>
       <c r="H10" s="3">
+        <v>294000</v>
+      </c>
+      <c r="I10" s="3">
         <v>309000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>313000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>330000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>347000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>346000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>343000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>361000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>336000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>308000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,37 +1006,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>40000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1035000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1145000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1232000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1167000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1131000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1208000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1218000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1190000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1087000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1188000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1095000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1057000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>34000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>72000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>59000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>85000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>58000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>57000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,40 +1245,41 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-29000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-42000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-35000</v>
       </c>
       <c r="H20" s="3">
         <v>-35000</v>
       </c>
       <c r="I20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="J20" s="3">
         <v>16000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1000</v>
       </c>
       <c r="N20" s="3">
         <v>1000</v>
@@ -1254,87 +1288,93 @@
         <v>1000</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>33000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>43000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>117000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>75000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>96000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>39000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>75000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>56000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="3">
         <v>18000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-53000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>84000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>38000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>79000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>58000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>39000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>23000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>339100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-329000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-25000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-76000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-301100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>311000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>16000</v>
       </c>
       <c r="Q26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-76000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-301100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>311000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>16000</v>
       </c>
       <c r="Q27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,32 +1719,35 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>317100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>3000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-453000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,40 +1843,43 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E32" s="3">
         <v>29000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>42000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>64000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>35000</v>
       </c>
       <c r="H32" s="3">
         <v>35000</v>
       </c>
       <c r="I32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-16000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1000</v>
       </c>
       <c r="N32" s="3">
         <v>-1000</v>
@@ -1818,60 +1888,66 @@
         <v>-1000</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-76000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>48000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>311000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>33000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-449000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>16000</v>
       </c>
       <c r="Q33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-76000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>48000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>311000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>33000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-449000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>16000</v>
       </c>
       <c r="Q35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,44 +2140,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E41" s="3">
         <v>362000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>338000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>122000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>132000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>142000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>212000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>265000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>75000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,44 +2238,47 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>884000</v>
+      </c>
+      <c r="E43" s="3">
         <v>704000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>820000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>817000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>845000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>835000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>838000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>821000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>809000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>766000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>756000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2195,44 +2288,47 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>618000</v>
+      </c>
+      <c r="E44" s="3">
         <v>614000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>671000</v>
       </c>
       <c r="F44" s="3">
         <v>671000</v>
       </c>
       <c r="G44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="H44" s="3">
         <v>729000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>722000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>701000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>628000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>603000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>523000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>481000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2242,44 +2338,47 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E45" s="3">
         <v>163000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>164000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>175000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>134000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>147000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>111000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>95000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2289,44 +2388,47 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1923000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1843000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1993000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1785000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1840000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1846000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1862000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1809000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1668000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1456000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1377000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,44 +2488,47 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>445000</v>
+      </c>
+      <c r="E48" s="3">
         <v>440000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>433000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>453000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>436000</v>
       </c>
       <c r="H48" s="3">
         <v>436000</v>
       </c>
       <c r="I48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="J48" s="3">
         <v>413000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>276000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>264000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>267000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,44 +2538,47 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2657000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2638000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2612000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2769000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2757000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2777000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2772000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2767000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2776000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2766000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2810000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,44 +2688,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E52" s="3">
         <v>245000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>249000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>121000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>101000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>97000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>96000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>28000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,44 +2788,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5269000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5166000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5287000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5128000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5133000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5160000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5144000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4972000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4742000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4507000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4482000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,44 +2880,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E57" s="3">
         <v>811000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>906000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>920000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>932000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1009000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1013000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>964000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>850000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>774000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>712000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,25 +2928,28 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E58" s="3">
         <v>287000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>382000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>22000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>88000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>22000</v>
       </c>
       <c r="I58" s="3">
         <v>22000</v>
@@ -2823,8 +2957,8 @@
       <c r="J58" s="3">
         <v>22000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>22000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -2844,44 +2978,47 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>606000</v>
+      </c>
+      <c r="E59" s="3">
         <v>564000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>467000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>552000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>531000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>528000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>524000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>503000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>550000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>459000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>418000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2891,44 +3028,47 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1645000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1662000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1755000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1494000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1559000</v>
       </c>
       <c r="I60" s="3">
         <v>1559000</v>
       </c>
       <c r="J60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1489000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1233000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1130000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2938,35 +3078,38 @@
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1011000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1149000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1158000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1165000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1169000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1174000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1179000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2985,44 +3128,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="E62" s="3">
         <v>998000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>862000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>874000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>844000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>839000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>819000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>771000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>657000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>794000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>763000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,44 +3328,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3664000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3671000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3766000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3526000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3560000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3567000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3552000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3439000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2057000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2027000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1893000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3598,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>38000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>47000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>39000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,44 +3798,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1605000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1495000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1521000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1602000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1573000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1593000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1592000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1533000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2685000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2480000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2589000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-76000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>48000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>311000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>33000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-449000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>16000</v>
       </c>
       <c r="Q81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,43 +4025,44 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="E83" s="3">
         <v>21000</v>
       </c>
       <c r="F83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G83" s="3">
         <v>25000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>17000</v>
       </c>
       <c r="O83" s="3">
         <v>17000</v>
@@ -3872,10 +4071,13 @@
         <v>17000</v>
       </c>
       <c r="Q83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="R83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E89" s="3">
         <v>145000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-74000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>93000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>87000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>117000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>132000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>126000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-143000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>111000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-108000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>349000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-75000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>53000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>19000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-102000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-99000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>157000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-88000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4626,89 +4875,95 @@
         <v>2000</v>
       </c>
       <c r="E101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2000</v>
       </c>
       <c r="P101" s="3">
         <v>2000</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E102" s="3">
         <v>24000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>216000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-10000</v>
       </c>
       <c r="G102" s="3">
         <v>-10000</v>
       </c>
       <c r="H102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-70000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-53000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>81000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>91000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>REZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1501000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1362000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1029000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1179000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1304000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1226000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1242000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1216000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1266000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1196000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1165000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1209000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1152000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1096000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1076000</v>
+      </c>
+      <c r="E9" s="3">
         <v>990000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>789000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>892000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1010000</v>
-      </c>
       <c r="H9" s="3">
+        <v>930000</v>
+      </c>
+      <c r="I9" s="3">
         <v>932000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>933000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>903000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>936000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>853000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>850000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>822000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>848000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>816000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>788000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E10" s="3">
         <v>372000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>240000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>287000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>374000</v>
+      </c>
+      <c r="I10" s="3">
         <v>294000</v>
       </c>
-      <c r="H10" s="3">
-        <v>294000</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>309000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>313000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>330000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>347000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>346000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>343000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>361000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>336000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>308000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,40 +1025,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
-        <v>3000</v>
-      </c>
       <c r="H14" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>40000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1349000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1231000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1035000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1145000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1232000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1167000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1131000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1208000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1218000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1190000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1087000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1188000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1095000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1057000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E18" s="3">
         <v>131000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>34000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>72000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>59000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>85000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>57000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>39000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,43 +1278,44 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-35000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-29000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-42000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-35000</v>
       </c>
       <c r="I20" s="3">
         <v>-35000</v>
       </c>
       <c r="J20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1000</v>
       </c>
       <c r="O20" s="3">
         <v>1000</v>
@@ -1291,63 +1324,69 @@
         <v>1000</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E21" s="3">
         <v>118000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>33000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>43000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>117000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>75000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>96000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>39000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>75000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>56000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,29 +1394,29 @@
         <v>14000</v>
       </c>
       <c r="E22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F22" s="3">
         <v>18000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E23" s="3">
         <v>82000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-53000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>84000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>38000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>79000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>58000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>39000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>339100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-329000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E26" s="3">
         <v>75000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-76000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-301100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>311000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>45000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>16000</v>
       </c>
       <c r="R26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E27" s="3">
         <v>75000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-76000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-301100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>311000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>45000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>16000</v>
       </c>
       <c r="R27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1722,32 +1782,35 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>317100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>3000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-453000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,43 +1912,46 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E32" s="3">
         <v>35000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>29000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>42000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>64000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>35000</v>
       </c>
       <c r="I32" s="3">
         <v>35000</v>
       </c>
       <c r="J32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1000</v>
       </c>
       <c r="O32" s="3">
         <v>-1000</v>
@@ -1891,63 +1960,69 @@
         <v>-1000</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E33" s="3">
         <v>75000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-76000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>48000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>311000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>33000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-449000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>16000</v>
       </c>
       <c r="R33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E35" s="3">
         <v>75000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-76000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>48000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>311000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>33000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-449000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>16000</v>
       </c>
       <c r="R35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,47 +2226,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E41" s="3">
         <v>260000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>362000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>338000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>122000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>132000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>142000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>212000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>265000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>184000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>75000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,47 +2330,50 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>863000</v>
+      </c>
+      <c r="E43" s="3">
         <v>884000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>704000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>820000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>817000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>845000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>835000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>838000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>821000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>809000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>766000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>756000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2291,47 +2383,50 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>672000</v>
+      </c>
+      <c r="E44" s="3">
         <v>618000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>614000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>671000</v>
       </c>
       <c r="G44" s="3">
         <v>671000</v>
       </c>
       <c r="H44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="I44" s="3">
         <v>729000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>722000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>701000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>628000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>603000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>523000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>481000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2341,47 +2436,50 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E45" s="3">
         <v>161000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>163000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>164000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>175000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>134000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>147000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>111000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>95000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>65000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2391,47 +2489,50 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1923000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1843000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1993000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1785000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1840000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1846000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1862000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1809000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1668000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1456000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1377000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,47 +2595,50 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E48" s="3">
         <v>445000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>440000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>433000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>453000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>436000</v>
       </c>
       <c r="I48" s="3">
         <v>436000</v>
       </c>
       <c r="J48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="K48" s="3">
         <v>413000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>276000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>264000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>267000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2541,47 +2648,50 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2691000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2657000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2638000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2612000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2769000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2757000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2777000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2772000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2767000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2776000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2766000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2810000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,47 +2807,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E52" s="3">
         <v>244000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>245000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>249000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>121000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>97000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>96000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,47 +2913,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5610000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5269000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5166000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5287000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5128000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5133000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5160000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5144000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4972000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4742000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4507000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4482000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,47 +3010,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E57" s="3">
         <v>858000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>811000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>906000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>920000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>932000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1009000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1013000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>964000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>850000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>774000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>712000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2931,28 +3061,31 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
         <v>181000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>287000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>382000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>22000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>88000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>22000</v>
       </c>
       <c r="J58" s="3">
         <v>22000</v>
@@ -2960,8 +3093,8 @@
       <c r="K58" s="3">
         <v>22000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>22000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -2981,47 +3114,50 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>595000</v>
+      </c>
+      <c r="E59" s="3">
         <v>606000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>564000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>467000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>552000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>531000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>528000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>524000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>503000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>550000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>459000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>418000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3031,47 +3167,50 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1645000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1662000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1755000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1494000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1559000</v>
       </c>
       <c r="J60" s="3">
         <v>1559000</v>
       </c>
       <c r="K60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="L60" s="3">
         <v>1489000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1233000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1130000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3081,38 +3220,41 @@
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1155000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1006000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1011000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1149000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1158000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1165000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1169000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1174000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1179000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3131,47 +3273,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>924000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1013000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>998000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>862000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>874000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>844000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>839000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>819000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>771000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>657000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>794000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>763000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,47 +3485,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3617000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3664000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3671000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3766000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3526000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3560000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3567000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3552000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3439000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2057000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2027000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1893000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>38000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>47000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>39000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,47 +3983,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1993000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1605000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1495000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1521000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1602000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1573000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1593000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1592000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1533000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2685000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2480000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2589000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E81" s="3">
         <v>75000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-76000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>48000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>311000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>33000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-449000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>16000</v>
       </c>
       <c r="R81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,37 +4233,37 @@
         <v>22000</v>
       </c>
       <c r="E83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="F83" s="3">
         <v>21000</v>
       </c>
       <c r="G83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H83" s="3">
         <v>25000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>17000</v>
       </c>
       <c r="P83" s="3">
         <v>17000</v>
@@ -4074,10 +4272,13 @@
         <v>17000</v>
       </c>
       <c r="R83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="S83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E89" s="3">
         <v>21000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>145000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-74000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>93000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>87000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>117000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>132000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>126000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-143000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>111000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-106000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-108000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>349000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-75000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>53000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-102000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-99000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>157000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
         <v>2000</v>
       </c>
       <c r="F101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>2000</v>
       </c>
       <c r="Q101" s="3">
         <v>2000</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-102000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>216000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-10000</v>
       </c>
       <c r="H102" s="3">
         <v>-10000</v>
       </c>
       <c r="I102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-70000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-53000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>81000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>91000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>REZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1501000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1362000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1029000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1179000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1304000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1226000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1242000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1216000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1266000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1196000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1165000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1209000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1152000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1096000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1076000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>990000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>789000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>892000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>930000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>932000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>933000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>903000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>936000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>853000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>850000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>822000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>848000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>816000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>788000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E10" s="3">
         <v>425000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>372000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>240000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>287000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>374000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>294000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>309000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>313000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>330000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>347000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>346000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>343000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>361000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>336000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>308000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,43 +1045,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E14" s="3">
         <v>13000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-17000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>40000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1348000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1349000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1231000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1035000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1145000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1232000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1167000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1131000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1208000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1218000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1190000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1087000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1188000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1095000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1057000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E18" s="3">
         <v>152000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>131000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>34000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>72000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>59000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>85000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>58000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>57000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>39000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,46 +1312,47 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-41000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-35000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-42000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-35000</v>
       </c>
       <c r="J20" s="3">
         <v>-35000</v>
       </c>
       <c r="K20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="L20" s="3">
         <v>16000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1000</v>
       </c>
       <c r="P20" s="3">
         <v>1000</v>
@@ -1327,99 +1361,105 @@
         <v>1000</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E21" s="3">
         <v>133000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>118000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>43000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>117000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>75000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>96000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>39000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>75000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>56000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="E22" s="3">
         <v>14000</v>
       </c>
       <c r="F22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G22" s="3">
         <v>18000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E23" s="3">
         <v>97000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>82000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-53000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>84000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>38000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>79000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>58000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>39000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E24" s="3">
         <v>38000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>339100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-329000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E26" s="3">
         <v>59000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>75000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-76000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-301100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>311000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>16000</v>
       </c>
       <c r="S26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E27" s="3">
         <v>59000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>75000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-76000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-301100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>311000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>45000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>16000</v>
       </c>
       <c r="S27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1785,32 +1846,35 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>317100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>3000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-453000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,46 +1982,49 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>41000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>35000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>42000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>64000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>35000</v>
       </c>
       <c r="J32" s="3">
         <v>35000</v>
       </c>
       <c r="K32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-16000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1000</v>
       </c>
       <c r="P32" s="3">
         <v>-1000</v>
@@ -1963,66 +2033,72 @@
         <v>-1000</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E33" s="3">
         <v>59000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>75000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-76000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>311000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>33000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-449000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>16000</v>
       </c>
       <c r="S33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E35" s="3">
         <v>59000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>75000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-76000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>311000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>33000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-449000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>16000</v>
       </c>
       <c r="S35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E41" s="3">
         <v>517000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>260000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>362000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>338000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>132000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>142000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>212000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>265000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>184000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>75000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,50 +2423,53 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>875000</v>
+      </c>
+      <c r="E43" s="3">
         <v>863000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>884000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>704000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>820000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>817000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>845000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>835000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>838000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>821000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>809000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>766000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>756000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2386,50 +2479,53 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E44" s="3">
         <v>672000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>618000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>614000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>671000</v>
       </c>
       <c r="H44" s="3">
         <v>671000</v>
       </c>
       <c r="I44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="J44" s="3">
         <v>729000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>722000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>701000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>628000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>603000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>523000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>481000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E45" s="3">
         <v>173000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>161000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>163000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>164000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>175000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>134000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>147000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>111000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>95000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>72000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>74000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>65000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2225000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1923000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1843000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1993000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1785000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1840000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1846000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1862000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1809000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1668000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1456000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1377000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,50 +2703,53 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E48" s="3">
         <v>451000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>445000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>440000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>433000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>453000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>436000</v>
       </c>
       <c r="J48" s="3">
         <v>436000</v>
       </c>
       <c r="K48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="L48" s="3">
         <v>413000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>300000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>276000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>264000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>267000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2651,50 +2759,53 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2675000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2691000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2657000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2638000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2612000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2769000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2757000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2777000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2772000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2767000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2776000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2766000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2810000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E52" s="3">
         <v>243000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>244000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>245000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>249000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>121000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>97000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>96000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5576000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5610000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5269000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5166000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5287000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5128000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5133000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5160000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5144000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4972000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4742000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4507000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4482000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>908000</v>
+      </c>
+      <c r="E57" s="3">
         <v>936000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>858000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>811000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>906000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>920000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>932000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1009000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1013000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>964000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>850000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>774000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>712000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3064,31 +3195,34 @@
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>181000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>287000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>382000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>22000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>88000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>22000</v>
       </c>
       <c r="K58" s="3">
         <v>22000</v>
@@ -3096,8 +3230,8 @@
       <c r="L58" s="3">
         <v>22000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>22000</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E59" s="3">
         <v>595000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>606000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>564000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>467000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>552000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>531000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>528000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>524000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>503000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>550000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>459000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>418000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1446000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1538000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1645000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1662000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1755000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1494000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1559000</v>
       </c>
       <c r="K60" s="3">
         <v>1559000</v>
       </c>
       <c r="L60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="M60" s="3">
         <v>1489000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1233000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1130000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3223,41 +3363,44 @@
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1186000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1155000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1006000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1011000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1149000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1158000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1165000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1169000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1174000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1179000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,50 +3419,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>912000</v>
+      </c>
+      <c r="E62" s="3">
         <v>924000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1013000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>998000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>862000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>874000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>844000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>839000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>819000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>771000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>657000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>794000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>763000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3544000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3617000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3664000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3671000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3766000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3526000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3560000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3567000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3552000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3439000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2057000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2027000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1893000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E72" s="3">
         <v>75000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>47000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>39000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2032000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1993000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1605000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1495000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1521000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1602000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1573000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1593000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1592000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1533000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2685000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2480000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2589000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E81" s="3">
         <v>59000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>75000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-76000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>311000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>33000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-449000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>16000</v>
       </c>
       <c r="S81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,49 +4422,50 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="E83" s="3">
         <v>22000</v>
       </c>
       <c r="F83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="G83" s="3">
         <v>21000</v>
       </c>
       <c r="H83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I83" s="3">
         <v>25000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>17000</v>
       </c>
       <c r="Q83" s="3">
         <v>17000</v>
@@ -4275,10 +4474,13 @@
         <v>17000</v>
       </c>
       <c r="S83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="T83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>152000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>145000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-74000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>93000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>117000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>132000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>126000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-143000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>111000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E100" s="3">
         <v>118000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-106000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-108000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>349000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-75000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>53000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-102000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-99000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>157000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-88000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>2000</v>
       </c>
       <c r="F101" s="3">
         <v>2000</v>
       </c>
       <c r="G101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>2000</v>
       </c>
       <c r="R101" s="3">
         <v>2000</v>
       </c>
       <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>257000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-102000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>216000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-10000</v>
       </c>
       <c r="I102" s="3">
         <v>-10000</v>
       </c>
       <c r="J102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-70000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-53000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>81000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>91000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>REZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1477000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1419000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1501000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1362000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1029000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1179000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1304000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1226000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1242000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1216000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1266000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1196000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1165000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1209000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1152000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1096000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1051000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1076000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>990000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>789000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>892000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>930000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>932000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>933000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>903000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>936000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>853000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>850000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>822000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>848000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>816000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>788000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E10" s="3">
         <v>368000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>425000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>372000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>240000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>287000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>374000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>294000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>309000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>313000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>330000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>347000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>346000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>343000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>361000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>336000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>308000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,13 +948,14 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>22000</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,46 +1064,49 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E14" s="3">
         <v>59000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-17000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>40000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1392000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1348000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1349000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1231000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1035000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1145000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1232000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1167000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1131000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1208000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1218000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1190000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1087000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1188000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1095000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1057000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E18" s="3">
         <v>71000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>152000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>131000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>34000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>72000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>59000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>58000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>78000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>57000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>39000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,49 +1345,50 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-41000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-35000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-42000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-35000</v>
       </c>
       <c r="K20" s="3">
         <v>-35000</v>
       </c>
       <c r="L20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1000</v>
       </c>
       <c r="Q20" s="3">
         <v>1000</v>
@@ -1364,105 +1397,111 @@
         <v>1000</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E21" s="3">
         <v>109000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>133000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>118000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>43000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>117000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>75000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>96000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>39000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>75000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>56000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="3">
         <v>13000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>14000</v>
       </c>
       <c r="F22" s="3">
         <v>14000</v>
       </c>
       <c r="G22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H22" s="3">
         <v>18000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E23" s="3">
         <v>73000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>97000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>82000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-53000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>84000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>38000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>79000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>58000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>39000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E24" s="3">
         <v>24000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>339100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-329000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E26" s="3">
         <v>49000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>59000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>75000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-76000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-301100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>311000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>16000</v>
       </c>
       <c r="T26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E27" s="3">
         <v>49000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>59000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>75000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-76000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-301100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>311000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>16000</v>
       </c>
       <c r="T27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1849,32 +1909,35 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>317100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>3000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-453000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,49 +2051,52 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>41000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>35000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>42000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>64000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>35000</v>
       </c>
       <c r="K32" s="3">
         <v>35000</v>
       </c>
       <c r="L32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q32" s="3">
         <v>-1000</v>
@@ -2036,69 +2105,75 @@
         <v>-1000</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E33" s="3">
         <v>49000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>59000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>75000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-76000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>311000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>33000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-449000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>16000</v>
       </c>
       <c r="T33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E35" s="3">
         <v>49000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>59000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>75000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-76000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>311000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>33000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-449000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>16000</v>
       </c>
       <c r="T35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2399,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E41" s="3">
         <v>508000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>517000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>260000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>362000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>338000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>122000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>132000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>142000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>212000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>265000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>184000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>75000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,53 +2515,56 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>895000</v>
+      </c>
+      <c r="E43" s="3">
         <v>875000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>863000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>884000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>704000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>820000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>817000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>845000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>835000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>838000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>821000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>809000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>766000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>756000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2482,53 +2574,56 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E44" s="3">
         <v>681000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>672000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>618000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>614000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>671000</v>
       </c>
       <c r="I44" s="3">
         <v>671000</v>
       </c>
       <c r="J44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="K44" s="3">
         <v>729000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>722000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>701000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>628000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>603000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>523000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>481000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2538,53 +2633,56 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E45" s="3">
         <v>156000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>173000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>161000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>163000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>164000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>175000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>134000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>147000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>111000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>95000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>72000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>74000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>65000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2594,53 +2692,56 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2356000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2220000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2225000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1923000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1843000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1993000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1785000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1840000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1846000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1862000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1809000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1668000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1456000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1377000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,53 +2810,56 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E48" s="3">
         <v>442000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>451000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>445000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>440000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>433000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>453000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>436000</v>
       </c>
       <c r="K48" s="3">
         <v>436000</v>
       </c>
       <c r="L48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="M48" s="3">
         <v>413000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>276000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>264000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>267000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2762,53 +2869,56 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2682000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2675000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2691000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2657000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2638000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2612000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2769000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2757000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2777000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2772000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2767000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2776000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2766000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2810000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3046,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E52" s="3">
         <v>239000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>243000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>244000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>245000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>249000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>121000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>101000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>97000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>96000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3164,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5712000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5576000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5610000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5269000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5166000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5287000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5128000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5133000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5160000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5144000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4972000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4742000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4507000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4482000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3271,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>915000</v>
+      </c>
+      <c r="E57" s="3">
         <v>908000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>936000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>858000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>811000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>906000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>920000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>932000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1009000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1013000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>964000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>850000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>774000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>712000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,25 +3340,25 @@
         <v>10000</v>
       </c>
       <c r="E58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>181000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>287000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>382000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>88000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>22000</v>
       </c>
       <c r="L58" s="3">
         <v>22000</v>
@@ -3233,8 +3366,8 @@
       <c r="M58" s="3">
         <v>22000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>22000</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3254,53 +3387,56 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E59" s="3">
         <v>528000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>595000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>606000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>564000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>467000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>552000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>531000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>528000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>524000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>503000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>550000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>459000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>418000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3310,53 +3446,56 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1511000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1446000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1538000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1645000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1662000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1755000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1494000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1559000</v>
       </c>
       <c r="L60" s="3">
         <v>1559000</v>
       </c>
       <c r="M60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="N60" s="3">
         <v>1489000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1233000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1130000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3366,44 +3505,47 @@
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1184000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1186000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1155000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1006000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1011000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1149000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1158000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1165000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1169000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1174000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1179000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3422,53 +3564,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>914000</v>
+      </c>
+      <c r="E62" s="3">
         <v>912000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>924000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1013000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>998000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>862000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>874000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>844000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>839000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>819000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>771000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>657000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>794000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>763000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3800,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3609000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3544000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3617000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3664000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3671000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3766000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3526000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3560000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3567000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3552000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3439000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2057000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2027000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1893000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4118,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E72" s="3">
         <v>124000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>75000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-59000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4354,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2103000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2032000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1993000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1605000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1495000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1521000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1602000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1573000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1593000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1592000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1533000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2685000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2480000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2589000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E81" s="3">
         <v>49000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>59000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>75000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-76000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>311000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>33000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-449000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>16000</v>
       </c>
       <c r="T81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,52 +4620,53 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E83" s="3">
         <v>23000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>22000</v>
       </c>
       <c r="F83" s="3">
         <v>22000</v>
       </c>
       <c r="G83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="H83" s="3">
         <v>21000</v>
       </c>
       <c r="I83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="J83" s="3">
         <v>25000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>17000</v>
       </c>
       <c r="R83" s="3">
         <v>17000</v>
@@ -4477,10 +4675,13 @@
         <v>17000</v>
       </c>
       <c r="T83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="U83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>152000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>145000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-74000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>93000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>117000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>132000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>126000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-143000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>111000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-39000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E100" s="3">
         <v>13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>118000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-106000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-108000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>349000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-75000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>53000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-102000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>157000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-88000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-20000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>2000</v>
       </c>
       <c r="G101" s="3">
         <v>2000</v>
       </c>
       <c r="H101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>2000</v>
       </c>
       <c r="S101" s="3">
         <v>2000</v>
       </c>
       <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>257000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-102000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>216000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-10000</v>
       </c>
       <c r="J102" s="3">
         <v>-10000</v>
       </c>
       <c r="K102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="L102" s="3">
         <v>-70000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-53000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>81000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>91000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>REZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1496000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1477000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1419000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1501000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1362000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1029000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1179000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1304000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1226000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1242000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1216000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1266000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1196000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1165000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1209000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1152000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1096000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1096000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1051000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1076000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>990000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>789000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>892000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>930000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>932000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>933000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>903000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>936000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>853000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>850000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>822000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>848000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>816000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>788000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E10" s="3">
         <v>381000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>368000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>425000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>372000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>240000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>287000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>374000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>294000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>309000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>313000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>330000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>347000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>346000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>343000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>361000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>336000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>308000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,17 +961,18 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="3">
         <v>22000</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,49 +1083,52 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E14" s="3">
         <v>36000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>59000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-17000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>40000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1126,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1392000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1348000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1349000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1231000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1035000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1145000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1232000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1167000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1131000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1208000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1218000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1190000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1087000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1188000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1095000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1057000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E18" s="3">
         <v>85000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>71000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>152000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>131000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>34000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>72000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>59000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>85000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>58000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>78000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>57000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>39000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,52 +1378,53 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-41000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-35000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-29000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-42000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-35000</v>
       </c>
       <c r="L20" s="3">
         <v>-35000</v>
       </c>
       <c r="M20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="N20" s="3">
         <v>16000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1000</v>
       </c>
       <c r="R20" s="3">
         <v>1000</v>
@@ -1400,72 +1433,78 @@
         <v>1000</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E21" s="3">
         <v>115000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>109000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>133000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>118000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>117000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>75000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>96000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>39000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>75000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>56000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,38 +1512,38 @@
         <v>12000</v>
       </c>
       <c r="E22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F22" s="3">
         <v>13000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>14000</v>
       </c>
       <c r="G22" s="3">
         <v>14000</v>
       </c>
       <c r="H22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I22" s="3">
         <v>18000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1523,126 +1562,135 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E23" s="3">
         <v>81000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>73000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>97000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>82000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-53000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>84000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>38000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>79000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>58000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>39000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E24" s="3">
         <v>23000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>339100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-329000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E26" s="3">
         <v>58000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>59000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>75000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-76000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-301100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>311000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>16000</v>
       </c>
       <c r="U26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E27" s="3">
         <v>58000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>49000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>59000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-76000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-301100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>311000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>16000</v>
       </c>
       <c r="U27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1912,32 +1972,35 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>317100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>3000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-453000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,52 +2120,55 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>41000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>35000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>29000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>42000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>64000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>35000</v>
       </c>
       <c r="L32" s="3">
         <v>35000</v>
       </c>
       <c r="M32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-16000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1000</v>
       </c>
       <c r="R32" s="3">
         <v>-1000</v>
@@ -2108,72 +2177,78 @@
         <v>-1000</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E33" s="3">
         <v>58000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>49000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>59000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>75000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-76000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>311000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>33000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-449000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>16000</v>
       </c>
       <c r="U33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E35" s="3">
         <v>58000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>49000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>59000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>75000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-76000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>311000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>33000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-449000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>16000</v>
       </c>
       <c r="U35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,56 +2485,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E41" s="3">
         <v>579000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>508000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>517000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>260000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>362000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>338000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>122000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>132000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>142000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>212000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>265000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>184000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>75000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2459,8 +2545,11 @@
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,56 +2607,59 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>932000</v>
+      </c>
+      <c r="E43" s="3">
         <v>895000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>875000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>863000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>884000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>704000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>820000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>817000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>845000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>835000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>838000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>821000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>809000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>766000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>756000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2577,56 +2669,59 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E44" s="3">
         <v>684000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>681000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>672000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>618000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>614000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>671000</v>
       </c>
       <c r="J44" s="3">
         <v>671000</v>
       </c>
       <c r="K44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="L44" s="3">
         <v>729000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>722000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>701000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>628000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>603000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>523000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>481000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2636,56 +2731,59 @@
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E45" s="3">
         <v>198000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>156000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>173000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>161000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>163000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>164000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>175000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>134000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>147000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>111000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>95000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>72000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>74000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>65000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2695,56 +2793,59 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2507000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2356000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2220000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2225000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1923000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1843000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1993000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1785000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1840000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1846000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1862000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1809000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1668000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1456000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1377000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2754,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,56 +2917,59 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E48" s="3">
         <v>438000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>442000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>451000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>445000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>440000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>433000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>453000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>436000</v>
       </c>
       <c r="L48" s="3">
         <v>436000</v>
       </c>
       <c r="M48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="N48" s="3">
         <v>413000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>276000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>264000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>267000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2872,56 +2979,59 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2671000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2682000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2675000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2691000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2657000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2638000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2612000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2769000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2757000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2777000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2772000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2767000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2776000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2766000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2810000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2931,8 +3041,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,56 +3165,59 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E52" s="3">
         <v>236000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>239000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>243000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>244000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>245000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>249000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>121000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>101000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>97000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>96000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3108,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,56 +3289,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5834000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5712000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5576000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5610000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5269000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5166000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5287000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5128000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5133000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5160000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5144000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4972000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4742000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4507000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4482000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3226,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,56 +3401,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>905000</v>
+      </c>
+      <c r="E57" s="3">
         <v>915000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>908000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>936000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>858000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>811000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>906000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>920000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>932000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1009000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1013000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>964000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>850000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>774000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>712000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3331,8 +3461,11 @@
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,25 +3476,25 @@
         <v>10000</v>
       </c>
       <c r="F58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>181000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>287000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>382000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>88000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>22000</v>
       </c>
       <c r="M58" s="3">
         <v>22000</v>
@@ -3369,8 +3502,8 @@
       <c r="N58" s="3">
         <v>22000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>22000</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3390,56 +3523,59 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E59" s="3">
         <v>586000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>528000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>595000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>606000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>564000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>467000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>552000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>531000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>528000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>524000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>503000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>550000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>459000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>418000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3449,56 +3585,59 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1511000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1446000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1538000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1645000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1662000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1755000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1494000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1559000</v>
       </c>
       <c r="M60" s="3">
         <v>1559000</v>
       </c>
       <c r="N60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="O60" s="3">
         <v>1489000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1233000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1130000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3508,47 +3647,50 @@
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1222000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1184000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1186000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1155000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1006000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1011000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1149000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1158000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1165000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1169000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1174000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1179000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3567,56 +3709,59 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>922000</v>
+      </c>
+      <c r="E62" s="3">
         <v>914000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>912000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>924000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1013000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>998000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>862000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>874000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>844000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>839000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>819000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>771000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>657000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>794000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>763000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3626,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,56 +3957,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3676000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3609000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3544000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3617000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3664000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3671000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3766000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3526000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3560000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3567000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3552000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3439000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2057000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2027000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1893000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3862,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,47 +4291,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E72" s="3">
         <v>182000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>124000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>75000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4180,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,56 +4539,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2158000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2103000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2032000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1993000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1605000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1495000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1521000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1602000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1573000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1593000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1592000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1533000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2685000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2480000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2589000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4416,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E81" s="3">
         <v>58000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>49000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>59000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>75000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-76000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>311000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>33000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-449000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>16000</v>
       </c>
       <c r="U81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4818,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4630,46 +4828,46 @@
         <v>22000</v>
       </c>
       <c r="E83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F83" s="3">
         <v>23000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>22000</v>
       </c>
       <c r="G83" s="3">
         <v>22000</v>
       </c>
       <c r="H83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="I83" s="3">
         <v>21000</v>
       </c>
       <c r="J83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K83" s="3">
         <v>25000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>17000</v>
       </c>
       <c r="S83" s="3">
         <v>17000</v>
@@ -4678,10 +4876,13 @@
         <v>17000</v>
       </c>
       <c r="U83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="V83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E89" s="3">
         <v>94000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>152000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>145000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-74000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>93000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-33000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-27000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>117000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>132000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>126000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-143000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>111000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>30000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-39000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>118000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-106000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-108000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>349000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-75000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>53000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-102000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-99000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>157000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-88000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-20000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2000</v>
       </c>
       <c r="H101" s="3">
         <v>2000</v>
       </c>
       <c r="I101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>2000</v>
       </c>
       <c r="T101" s="3">
         <v>2000</v>
       </c>
       <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E102" s="3">
         <v>71000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>257000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-102000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>216000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-10000</v>
       </c>
       <c r="K102" s="3">
         <v>-10000</v>
       </c>
       <c r="L102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="M102" s="3">
         <v>-70000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-53000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>81000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>91000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>REZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1496000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1477000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1419000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1501000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1362000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1029000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1179000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1304000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1226000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1242000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1216000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1266000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1196000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1165000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1209000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1152000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1096000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1058000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1080000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1096000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1051000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1076000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>990000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>789000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>892000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>930000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>932000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>933000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>903000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>936000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>853000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>850000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>822000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>848000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>816000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>788000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E10" s="3">
         <v>416000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>381000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>368000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>425000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>372000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>240000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>287000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>374000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>294000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>309000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>313000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>330000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>347000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>346000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>343000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>361000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>336000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>308000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,20 +975,21 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E12" s="3">
         <v>20000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22000</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,52 +1103,55 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E14" s="3">
         <v>57000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>36000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>59000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-17000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>40000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1348000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1386000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1392000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1348000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1349000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1231000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1035000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1145000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1232000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1167000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1131000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1208000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1218000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1190000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1087000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1188000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1095000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1057000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E18" s="3">
         <v>110000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>85000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>71000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>152000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>131000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>34000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>72000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>85000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>58000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>78000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>57000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>39000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,55 +1412,56 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-41000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-35000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-42000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-35000</v>
       </c>
       <c r="M20" s="3">
         <v>-35000</v>
       </c>
       <c r="N20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="O20" s="3">
         <v>16000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1000</v>
       </c>
       <c r="S20" s="3">
         <v>1000</v>
@@ -1436,117 +1470,123 @@
         <v>1000</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E21" s="3">
         <v>131000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>115000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>109000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>133000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>118000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>33000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>43000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>117000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>75000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>96000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>39000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>75000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>56000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="E22" s="3">
         <v>12000</v>
       </c>
       <c r="F22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G22" s="3">
         <v>13000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>14000</v>
       </c>
       <c r="H22" s="3">
         <v>14000</v>
       </c>
       <c r="I22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J22" s="3">
         <v>18000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1565,132 +1605,141 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E23" s="3">
         <v>97000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>81000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>73000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>97000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>82000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-53000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>84000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>38000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>79000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>58000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>39000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E24" s="3">
         <v>29000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>339100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-329000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-25000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>35000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E26" s="3">
         <v>68000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>58000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>49000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>59000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>75000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-76000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-301100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>311000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>45000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>16000</v>
       </c>
       <c r="V26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E27" s="3">
         <v>68000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>58000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>49000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>59000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>75000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-76000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-301100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>311000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>45000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>16000</v>
       </c>
       <c r="V27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1975,32 +2036,35 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>317100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>3000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-453000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,55 +2190,58 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>41000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>35000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>42000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>64000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>35000</v>
       </c>
       <c r="M32" s="3">
         <v>35000</v>
       </c>
       <c r="N32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-16000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1000</v>
       </c>
       <c r="S32" s="3">
         <v>-1000</v>
@@ -2180,75 +2250,81 @@
         <v>-1000</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E33" s="3">
         <v>68000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>58000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>49000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>59000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>75000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-76000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>311000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>33000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>45000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-449000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>16000</v>
       </c>
       <c r="V33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E35" s="3">
         <v>68000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>58000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>49000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>59000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>75000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-76000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>311000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>33000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>45000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-449000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>16000</v>
       </c>
       <c r="V35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,59 +2572,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>779000</v>
+      </c>
+      <c r="E41" s="3">
         <v>686000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>579000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>508000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>517000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>260000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>362000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>338000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>132000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>142000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>212000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>265000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>184000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>93000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>75000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2548,8 +2635,11 @@
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,59 +2700,62 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>876000</v>
+      </c>
+      <c r="E43" s="3">
         <v>932000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>895000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>875000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>863000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>884000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>704000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>820000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>817000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>845000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>835000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>838000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>821000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>809000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>766000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>756000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2672,59 +2765,62 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>740000</v>
+      </c>
+      <c r="E44" s="3">
         <v>710000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>684000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>681000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>672000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>618000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>614000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>671000</v>
       </c>
       <c r="K44" s="3">
         <v>671000</v>
       </c>
       <c r="L44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="M44" s="3">
         <v>729000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>722000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>701000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>628000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>603000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>523000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>481000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2734,59 +2830,62 @@
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E45" s="3">
         <v>179000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>198000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>156000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>173000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>161000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>163000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>164000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>175000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>134000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>147000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>111000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>95000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>72000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>74000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>65000</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2796,59 +2895,62 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2541000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2507000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2356000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2220000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2225000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1923000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1843000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1993000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1785000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1840000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1846000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1862000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1809000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1668000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1456000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1377000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2858,8 +2960,11 @@
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,59 +3025,62 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E48" s="3">
         <v>424000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>438000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>442000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>451000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>445000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>440000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>433000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>453000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>436000</v>
       </c>
       <c r="M48" s="3">
         <v>436000</v>
       </c>
       <c r="N48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="O48" s="3">
         <v>413000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>300000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>276000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>264000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>267000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2982,59 +3090,62 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2661000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2671000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2682000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2675000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2691000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2657000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2638000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2612000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2769000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2757000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2777000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2772000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2767000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2776000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2766000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2810000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,59 +3285,62 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E52" s="3">
         <v>232000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>236000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>239000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>243000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>244000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>245000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>249000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>121000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>101000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>97000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>96000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>28000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,59 +3415,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5853000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5834000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5712000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5576000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5610000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5269000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5166000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5287000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5128000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5133000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5160000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5144000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4972000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4742000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4507000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4482000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,59 +3532,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E57" s="3">
         <v>905000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>915000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>908000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>936000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>858000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>811000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>906000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>920000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>932000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1009000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1013000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>964000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>850000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>774000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>712000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3464,8 +3595,11 @@
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3479,25 +3613,25 @@
         <v>10000</v>
       </c>
       <c r="G58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>181000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>287000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>382000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>88000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>22000</v>
       </c>
       <c r="N58" s="3">
         <v>22000</v>
@@ -3505,8 +3639,8 @@
       <c r="O58" s="3">
         <v>22000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>22000</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3526,59 +3660,62 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E59" s="3">
         <v>617000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>586000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>528000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>595000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>606000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>564000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>467000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>552000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>531000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>528000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>524000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>503000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>550000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>459000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>418000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3588,59 +3725,62 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1532000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1511000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1446000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1538000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1645000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1662000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1755000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1494000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1559000</v>
       </c>
       <c r="N60" s="3">
         <v>1559000</v>
       </c>
       <c r="O60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="P60" s="3">
         <v>1489000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1233000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1130000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3650,50 +3790,53 @@
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1222000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1184000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1186000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1155000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1006000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1011000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1149000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1158000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1165000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1169000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1174000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1179000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3712,59 +3855,62 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>887000</v>
+      </c>
+      <c r="E62" s="3">
         <v>922000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>914000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>912000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>924000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1013000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>998000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>862000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>874000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>844000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>839000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>819000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>771000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>657000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>794000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>763000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,59 +4115,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3601000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3676000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3609000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3544000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3617000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3664000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3671000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3766000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3526000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3560000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3567000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3552000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3439000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2057000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2027000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1893000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,50 +4465,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E72" s="3">
         <v>250000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>182000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>124000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>75000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-59000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,59 +4725,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2252000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2158000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2103000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2032000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1993000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1605000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1495000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1521000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1602000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1573000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1593000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1592000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1533000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2685000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2480000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2589000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E81" s="3">
         <v>68000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>58000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>49000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>59000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>75000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-76000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>311000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>33000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>45000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-449000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>16000</v>
       </c>
       <c r="V81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,58 +5017,59 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="E83" s="3">
         <v>22000</v>
       </c>
       <c r="F83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G83" s="3">
         <v>23000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>22000</v>
       </c>
       <c r="H83" s="3">
         <v>22000</v>
       </c>
       <c r="I83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J83" s="3">
         <v>21000</v>
       </c>
       <c r="K83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="L83" s="3">
         <v>25000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>17000</v>
       </c>
       <c r="T83" s="3">
         <v>17000</v>
@@ -4879,10 +5078,13 @@
         <v>17000</v>
       </c>
       <c r="V83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="W83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E89" s="3">
         <v>104000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>94000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>152000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>145000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-74000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>93000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-33000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-27000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>87000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>117000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>132000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>126000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-143000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>111000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-51000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E100" s="3">
         <v>21000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>118000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-106000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-108000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>349000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-75000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>53000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-102000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-99000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>157000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-88000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>2000</v>
       </c>
       <c r="I101" s="3">
         <v>2000</v>
       </c>
       <c r="J101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>2000</v>
       </c>
       <c r="U101" s="3">
         <v>2000</v>
       </c>
       <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E102" s="3">
         <v>107000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>71000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>257000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-102000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>216000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-10000</v>
       </c>
       <c r="L102" s="3">
         <v>-10000</v>
       </c>
       <c r="M102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="N102" s="3">
         <v>-70000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-53000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>81000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>91000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>REZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1506000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1454000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1496000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1477000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1419000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1501000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1362000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1029000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1179000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1304000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1226000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1242000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1216000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1266000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1200000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1196000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1165000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1209000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1152000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1096000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1058000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1080000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1096000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1051000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1076000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>990000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>789000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>892000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>930000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>932000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>933000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>903000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>936000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>853000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>850000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>822000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>848000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>816000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>788000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E10" s="3">
         <v>396000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>416000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>381000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>368000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>425000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>372000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>240000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>287000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>374000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>294000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>309000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>313000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>330000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>347000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>346000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>343000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>361000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>336000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>308000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,23 +989,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,55 +1123,58 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E14" s="3">
         <v>35000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>57000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>36000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>59000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-17000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>40000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1348000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1386000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1392000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1348000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1349000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1231000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1035000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1145000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1232000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1167000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1131000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1208000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1218000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1190000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1087000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1188000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1095000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1057000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E18" s="3">
         <v>106000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>110000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>85000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>71000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>152000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>131000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>34000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>72000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>59000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>85000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>58000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>78000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>57000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>39000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,58 +1446,59 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-41000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-35000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-42000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-35000</v>
       </c>
       <c r="N20" s="3">
         <v>-35000</v>
       </c>
       <c r="O20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="P20" s="3">
         <v>16000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1000</v>
       </c>
       <c r="T20" s="3">
         <v>1000</v>
@@ -1473,78 +1507,84 @@
         <v>1000</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E21" s="3">
         <v>134000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>131000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>115000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>109000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>133000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>118000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>33000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>43000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>117000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>75000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>96000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>39000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>75000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>56000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1552,44 +1592,44 @@
         <v>11000</v>
       </c>
       <c r="E22" s="3">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="F22" s="3">
         <v>12000</v>
       </c>
       <c r="G22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H22" s="3">
         <v>13000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>14000</v>
       </c>
       <c r="I22" s="3">
         <v>14000</v>
       </c>
       <c r="J22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K22" s="3">
         <v>18000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1608,138 +1648,147 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E23" s="3">
         <v>102000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>97000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>81000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>73000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>97000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>82000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-53000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>84000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>38000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>79000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>58000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>39000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E24" s="3">
         <v>35000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>38000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>339100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-329000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-25000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>35000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E26" s="3">
         <v>67000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>68000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>58000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>49000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>59000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>75000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-76000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-301100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>311000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>45000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23000</v>
-      </c>
-      <c r="V26" s="3">
-        <v>16000</v>
       </c>
       <c r="W26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E27" s="3">
         <v>67000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>68000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>58000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>49000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>59000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>75000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-76000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-301100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>311000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>45000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23000</v>
-      </c>
-      <c r="V27" s="3">
-        <v>16000</v>
       </c>
       <c r="W27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,31 +2056,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2039,32 +2100,35 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>317100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>3000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-453000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,58 +2260,61 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>41000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>35000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>42000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>64000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>35000</v>
       </c>
       <c r="N32" s="3">
         <v>35000</v>
       </c>
       <c r="O32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-16000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1000</v>
       </c>
       <c r="T32" s="3">
         <v>-1000</v>
@@ -2253,78 +2323,84 @@
         <v>-1000</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E33" s="3">
         <v>67000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>68000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>58000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>49000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>59000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>75000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-76000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>311000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>33000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>45000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-449000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23000</v>
-      </c>
-      <c r="V33" s="3">
-        <v>16000</v>
       </c>
       <c r="W33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E35" s="3">
         <v>67000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>68000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>58000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>49000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>59000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>75000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-76000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>311000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>33000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>45000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-449000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23000</v>
-      </c>
-      <c r="V35" s="3">
-        <v>16000</v>
       </c>
       <c r="W35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,62 +2659,63 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E41" s="3">
         <v>779000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>686000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>579000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>508000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>517000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>260000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>362000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>338000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>122000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>132000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>142000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>212000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>265000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>184000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>93000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>75000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2638,8 +2725,11 @@
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,62 +2793,65 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E43" s="3">
         <v>876000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>932000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>895000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>875000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>863000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>884000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>704000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>820000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>817000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>845000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>835000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>838000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>821000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>809000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>766000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>756000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2768,62 +2861,65 @@
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>922000</v>
+      </c>
+      <c r="E44" s="3">
         <v>740000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>710000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>684000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>681000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>672000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>618000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>614000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>671000</v>
       </c>
       <c r="L44" s="3">
         <v>671000</v>
       </c>
       <c r="M44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="N44" s="3">
         <v>729000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>722000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>701000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>628000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>603000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>523000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>481000</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2833,62 +2929,65 @@
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E45" s="3">
         <v>146000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>179000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>198000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>156000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>173000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>161000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>163000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>164000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>175000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>134000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>147000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>111000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>95000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>72000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>74000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>65000</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2898,62 +2997,65 @@
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2339000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2541000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2507000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2356000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2220000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2225000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1923000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1843000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1993000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1785000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1840000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1846000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1862000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1809000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1668000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1456000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1377000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2963,8 +3065,11 @@
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,62 +3133,65 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E48" s="3">
         <v>428000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>424000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>438000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>442000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>451000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>445000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>440000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>433000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>453000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>436000</v>
       </c>
       <c r="N48" s="3">
         <v>436000</v>
       </c>
       <c r="O48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="P48" s="3">
         <v>413000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>300000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>276000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>264000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>267000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3093,62 +3201,65 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3125000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2661000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2671000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2682000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2675000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2691000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2657000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2638000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2612000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2769000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2757000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2777000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2772000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2767000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2776000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2766000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2810000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,62 +3405,65 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E52" s="3">
         <v>223000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>232000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>236000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>239000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>243000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>244000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>245000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>249000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>121000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>101000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>97000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>96000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28000</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,62 +3541,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6245000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5853000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5834000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5712000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5576000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5610000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5269000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5166000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5287000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5128000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5133000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5160000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5144000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4972000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4742000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4507000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4482000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,62 +3663,63 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E57" s="3">
         <v>883000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>905000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>915000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>908000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>936000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>858000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>811000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>906000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>920000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>932000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1009000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1013000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>964000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>850000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>774000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>712000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3598,13 +3729,16 @@
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="E58" s="3">
         <v>10000</v>
@@ -3616,25 +3750,25 @@
         <v>10000</v>
       </c>
       <c r="H58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I58" s="3">
         <v>7000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>181000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>287000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>382000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>88000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>22000</v>
       </c>
       <c r="O58" s="3">
         <v>22000</v>
@@ -3642,8 +3776,8 @@
       <c r="P58" s="3">
         <v>22000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>22000</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3663,62 +3797,65 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>576000</v>
+      </c>
+      <c r="E59" s="3">
         <v>601000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>617000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>586000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>528000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>595000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>606000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>564000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>467000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>552000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>531000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>528000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>524000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>503000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>550000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>459000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>418000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3728,62 +3865,65 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1494000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1532000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1511000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1446000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1538000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1645000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1662000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1755000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1494000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1559000</v>
       </c>
       <c r="O60" s="3">
         <v>1559000</v>
       </c>
       <c r="P60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1489000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1233000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1130000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3793,53 +3933,56 @@
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1412000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1220000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1222000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1184000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1186000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1155000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1006000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1011000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1149000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1158000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1165000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1169000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1174000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1179000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3858,62 +4001,65 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>926000</v>
+      </c>
+      <c r="E62" s="3">
         <v>887000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>922000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>914000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>912000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>924000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1013000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>998000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>862000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>874000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>844000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>839000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>819000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>771000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>657000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>794000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>763000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,62 +4273,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3884000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3601000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3676000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3609000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3544000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3617000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3664000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3671000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3766000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3526000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3560000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3567000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3552000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3439000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2057000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2027000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1893000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,53 +4639,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E72" s="3">
         <v>317000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>250000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>182000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>124000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>75000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-59000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,62 +4911,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2361000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2252000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2158000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2103000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2032000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1993000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1605000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1495000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1521000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1602000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1573000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1593000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1592000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1533000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2685000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2480000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2589000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E81" s="3">
         <v>67000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>68000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>58000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>49000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>59000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>75000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-76000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>311000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>33000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>45000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-449000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23000</v>
-      </c>
-      <c r="V81" s="3">
-        <v>16000</v>
       </c>
       <c r="W81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,61 +5216,62 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E83" s="3">
         <v>21000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>22000</v>
       </c>
       <c r="F83" s="3">
         <v>22000</v>
       </c>
       <c r="G83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H83" s="3">
         <v>23000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>22000</v>
       </c>
       <c r="I83" s="3">
         <v>22000</v>
       </c>
       <c r="J83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="K83" s="3">
         <v>21000</v>
       </c>
       <c r="L83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="M83" s="3">
         <v>25000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>17000</v>
       </c>
       <c r="U83" s="3">
         <v>17000</v>
@@ -5081,10 +5280,13 @@
         <v>17000</v>
       </c>
       <c r="W83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="X83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E89" s="3">
         <v>112000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>104000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>94000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>152000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>145000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-74000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>93000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-33000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-27000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>117000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>132000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>126000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-143000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>111000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>30000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-665000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-39000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>118000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-106000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-108000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>349000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-75000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>53000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-23000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-102000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-99000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>157000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-88000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-20000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2000</v>
       </c>
       <c r="J101" s="3">
         <v>2000</v>
       </c>
       <c r="K101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>2000</v>
       </c>
       <c r="V101" s="3">
         <v>2000</v>
       </c>
       <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E102" s="3">
         <v>93000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>107000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>71000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>257000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-102000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>216000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-10000</v>
       </c>
       <c r="M102" s="3">
         <v>-10000</v>
       </c>
       <c r="N102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="O102" s="3">
         <v>-70000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-53000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>81000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>91000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>10000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>REZI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1686000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1506000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1454000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1496000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1477000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1419000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1501000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1362000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1029000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1179000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1304000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1226000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1242000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1216000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1266000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1196000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1165000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1209000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1152000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1096000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1219000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1072000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1058000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1080000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1096000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1051000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1076000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>990000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>789000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>892000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>930000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>932000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>933000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>903000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>936000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>853000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>850000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>822000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>848000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>816000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>788000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E10" s="3">
         <v>434000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>396000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>416000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>381000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>368000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>425000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>372000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>240000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>287000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>374000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>294000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>309000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>313000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>330000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>347000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>346000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>343000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>361000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>336000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>308000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,26 +1002,27 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E12" s="3">
         <v>24000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,58 +1142,61 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>57000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I14" s="3">
         <v>59000</v>
       </c>
-      <c r="E14" s="3">
-        <v>35000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>57000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>36000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>59000</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-17000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>40000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1194,31 +1213,34 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1393000</v>
+        <v>1545000</v>
       </c>
       <c r="E17" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1348000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1386000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1392000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1348000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1349000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1231000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1035000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1145000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1232000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1167000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1131000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1208000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1218000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1190000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1087000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1188000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1095000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1057000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>113000</v>
+        <v>141000</v>
       </c>
       <c r="E18" s="3">
+        <v>108000</v>
+      </c>
+      <c r="F18" s="3">
         <v>106000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>110000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>85000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>71000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>152000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>131000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>72000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>85000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>78000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>57000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>39000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,61 +1479,62 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="E20" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-41000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-35000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-29000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-35000</v>
       </c>
       <c r="O20" s="3">
         <v>-35000</v>
       </c>
       <c r="P20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>16000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1000</v>
       </c>
       <c r="U20" s="3">
         <v>1000</v>
@@ -1510,129 +1543,135 @@
         <v>1000</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E21" s="3">
         <v>152000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>134000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>131000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>115000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>109000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>133000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>118000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>33000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>43000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>117000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>75000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>96000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>39000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>75000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>56000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E22" s="3">
         <v>11000</v>
       </c>
       <c r="F22" s="3">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="G22" s="3">
         <v>12000</v>
       </c>
       <c r="H22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I22" s="3">
         <v>13000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>14000</v>
       </c>
       <c r="J22" s="3">
         <v>14000</v>
       </c>
       <c r="K22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L22" s="3">
         <v>18000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1651,144 +1690,153 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E23" s="3">
         <v>121000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>102000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>97000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>81000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>73000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>97000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>82000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-53000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>84000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>38000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>79000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>58000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>39000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E24" s="3">
         <v>34000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>35000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>339100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-329000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-25000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>35000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E26" s="3">
         <v>87000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>67000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>68000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>58000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>49000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>59000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>75000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-76000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-301100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>311000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>30000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23000</v>
-      </c>
-      <c r="W26" s="3">
-        <v>16000</v>
       </c>
       <c r="X26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E27" s="3">
         <v>87000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>67000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>68000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>58000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>49000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>59000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>75000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-76000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-301100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>311000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>45000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23000</v>
-      </c>
-      <c r="W27" s="3">
-        <v>16000</v>
       </c>
       <c r="X27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2085,8 +2145,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2103,32 +2163,35 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>317100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>3000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-453000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,61 +2329,64 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19000</v>
+        <v>-4000</v>
       </c>
       <c r="E32" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>41000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>35000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>29000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>64000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>35000</v>
       </c>
       <c r="O32" s="3">
         <v>35000</v>
       </c>
       <c r="P32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>1000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-1000</v>
       </c>
       <c r="U32" s="3">
         <v>-1000</v>
@@ -2326,81 +2395,87 @@
         <v>-1000</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E33" s="3">
         <v>87000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>68000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>58000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>49000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>59000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-76000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>311000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>33000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>45000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-449000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23000</v>
-      </c>
-      <c r="W33" s="3">
-        <v>16000</v>
       </c>
       <c r="X33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E35" s="3">
         <v>87000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>68000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>58000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>49000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>59000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-76000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>311000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>33000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>45000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-449000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23000</v>
-      </c>
-      <c r="W35" s="3">
-        <v>16000</v>
       </c>
       <c r="X35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,65 +2745,66 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E41" s="3">
         <v>244000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>779000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>686000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>579000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>508000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>517000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>260000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>362000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>338000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>122000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>132000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>142000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>212000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>265000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>184000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>93000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>75000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2728,8 +2814,11 @@
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,65 +2885,68 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1008000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>876000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>932000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>895000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>875000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>863000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>884000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>704000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>820000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>817000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>845000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>835000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>838000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>821000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>809000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>766000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>756000</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2864,65 +2956,68 @@
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>971000</v>
+      </c>
+      <c r="E44" s="3">
         <v>922000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>740000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>710000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>684000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>681000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>672000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>618000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>614000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>671000</v>
       </c>
       <c r="M44" s="3">
         <v>671000</v>
       </c>
       <c r="N44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="O44" s="3">
         <v>729000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>722000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>701000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>628000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>603000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>523000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>481000</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2932,65 +3027,68 @@
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E45" s="3">
         <v>165000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>146000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>179000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>198000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>156000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>173000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>161000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>163000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>164000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>175000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>134000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>147000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>111000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>95000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>72000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>74000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>65000</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3000,65 +3098,68 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2481000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2339000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2541000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2507000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2356000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2220000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2225000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1923000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1843000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1993000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1785000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1840000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1846000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1862000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1809000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1668000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1456000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1377000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3068,8 +3169,11 @@
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,65 +3240,68 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E48" s="3">
         <v>514000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>428000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>424000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>438000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>442000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>451000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>445000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>440000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>433000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>453000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>436000</v>
       </c>
       <c r="O48" s="3">
         <v>436000</v>
       </c>
       <c r="P48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>413000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>276000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>264000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>267000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3204,65 +3311,68 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3158000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3125000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2661000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2671000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2682000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2675000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2691000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2657000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2638000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2612000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2769000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2757000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2777000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2772000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2767000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2776000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2766000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2810000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3272,8 +3382,11 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,65 +3524,68 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E52" s="3">
         <v>267000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>223000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>232000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>236000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>239000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>243000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>244000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>245000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>249000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>121000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>101000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>97000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>96000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>21000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28000</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3476,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,65 +3666,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6316000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6245000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5853000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5834000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5712000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5576000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5610000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5269000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5166000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5287000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5128000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5133000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5160000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5144000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4972000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4742000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4507000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4482000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3612,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,65 +3793,66 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>987000</v>
+      </c>
+      <c r="E57" s="3">
         <v>958000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>883000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>905000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>915000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>908000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>936000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>858000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>811000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>906000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>920000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>932000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1009000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1013000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>964000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>850000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>774000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>712000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3732,8 +3862,11 @@
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3741,7 +3874,7 @@
         <v>12000</v>
       </c>
       <c r="E58" s="3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F58" s="3">
         <v>10000</v>
@@ -3753,25 +3886,25 @@
         <v>10000</v>
       </c>
       <c r="I58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J58" s="3">
         <v>7000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>181000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>287000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>382000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>88000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>22000</v>
       </c>
       <c r="P58" s="3">
         <v>22000</v>
@@ -3779,8 +3912,8 @@
       <c r="Q58" s="3">
         <v>22000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>22000</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -3800,65 +3933,68 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E59" s="3">
         <v>576000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>601000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>617000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>586000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>528000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>595000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>606000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>564000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>467000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>552000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>531000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>528000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>524000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>503000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>550000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>459000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>418000</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3868,65 +4004,68 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1579000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1546000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1494000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1532000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1511000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1446000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1538000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1645000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1662000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1755000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1494000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1559000</v>
       </c>
       <c r="P60" s="3">
         <v>1559000</v>
       </c>
       <c r="Q60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="R60" s="3">
         <v>1489000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1233000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1130000</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3936,56 +4075,59 @@
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1412000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1220000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1222000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1184000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1186000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1155000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1006000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1011000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1149000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1158000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1165000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1169000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1174000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1179000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4004,65 +4146,68 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>933000</v>
+      </c>
+      <c r="E62" s="3">
         <v>926000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>887000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>922000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>914000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>912000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>924000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1013000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>998000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>862000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>874000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>844000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>839000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>819000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>771000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>657000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>794000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>763000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4072,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,65 +4430,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3922000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3884000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3601000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3676000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3609000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3544000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3617000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3664000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3671000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3766000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3526000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3560000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3567000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3552000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3439000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2057000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2027000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1893000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4344,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,56 +4812,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E72" s="3">
         <v>404000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>317000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>250000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>182000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>124000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>75000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>47000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4710,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,65 +5096,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2394000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2361000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2252000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2158000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2103000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2032000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1993000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1605000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1495000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1521000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1602000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1573000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1593000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1592000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1533000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2685000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2480000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2589000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4982,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E81" s="3">
         <v>87000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>68000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>58000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>49000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>59000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-76000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>311000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>33000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>45000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-449000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23000</v>
-      </c>
-      <c r="W81" s="3">
-        <v>16000</v>
       </c>
       <c r="X81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,64 +5414,65 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E83" s="3">
         <v>20000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>22000</v>
       </c>
       <c r="G83" s="3">
         <v>22000</v>
       </c>
       <c r="H83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I83" s="3">
         <v>23000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>22000</v>
       </c>
       <c r="J83" s="3">
         <v>22000</v>
       </c>
       <c r="K83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L83" s="3">
         <v>21000</v>
       </c>
       <c r="M83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="N83" s="3">
         <v>25000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>17000</v>
       </c>
       <c r="V83" s="3">
         <v>17000</v>
@@ -5283,10 +5481,13 @@
         <v>17000</v>
       </c>
       <c r="X83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-59000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>112000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>104000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>94000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>152000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>145000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-74000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>93000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-33000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-27000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>117000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>132000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>126000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-143000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>111000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>30000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-40000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-665000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-39000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-15000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E100" s="3">
         <v>189000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>118000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-106000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-108000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>349000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-75000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>53000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-102000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-99000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>157000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-88000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-20000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2000</v>
       </c>
       <c r="K101" s="3">
         <v>2000</v>
       </c>
       <c r="L101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>2000</v>
       </c>
       <c r="W101" s="3">
         <v>2000</v>
       </c>
       <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-535000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>93000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>107000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>71000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>257000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-102000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>216000</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-10000</v>
       </c>
       <c r="N102" s="3">
         <v>-10000</v>
       </c>
       <c r="O102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="P102" s="3">
         <v>-70000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>81000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>91000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1686000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1506000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1454000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1496000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1477000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1419000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1501000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1362000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1029000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1179000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1304000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1226000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1242000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1216000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1266000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1196000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1165000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1209000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1152000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1096000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1188000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1219000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1072000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1058000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1080000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1096000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1051000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1076000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>990000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>789000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>892000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>930000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>932000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>933000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>903000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>936000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>853000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>850000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>822000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>848000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>816000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>788000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E10" s="3">
         <v>467000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>434000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>396000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>416000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>381000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>368000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>425000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>372000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>240000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>287000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>374000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>294000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>309000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>313000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>330000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>347000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>346000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>343000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>361000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>336000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>308000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,29 +1015,30 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E12" s="3">
         <v>28000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,61 +1161,64 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E14" s="3">
         <v>45000</v>
       </c>
-      <c r="E14" s="3">
-        <v>64000</v>
-      </c>
       <c r="F14" s="3">
+        <v>41000</v>
+      </c>
+      <c r="G14" s="3">
         <v>35000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>57000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>36000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>59000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-17000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>40000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1216,17 +1235,20 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="3">
         <v>9000</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1242,8 +1264,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1287,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1506000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1545000</v>
       </c>
-      <c r="E17" s="3">
-        <v>1398000</v>
-      </c>
       <c r="F17" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1348000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1386000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1392000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1348000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1349000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1231000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1035000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1145000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1232000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1167000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1131000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1208000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1218000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1190000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1087000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1188000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1095000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1057000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E18" s="3">
         <v>141000</v>
       </c>
-      <c r="E18" s="3">
-        <v>108000</v>
-      </c>
       <c r="F18" s="3">
+        <v>131000</v>
+      </c>
+      <c r="G18" s="3">
         <v>106000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>110000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>85000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>71000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>152000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>131000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>34000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>72000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>59000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>85000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>58000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-18000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>78000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>57000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>39000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,64 +1512,65 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
-        <v>24000</v>
-      </c>
       <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>15000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-35000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-29000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-42000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-35000</v>
       </c>
       <c r="P20" s="3">
         <v>-35000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="R20" s="3">
         <v>16000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1000</v>
       </c>
       <c r="V20" s="3">
         <v>1000</v>
@@ -1546,135 +1579,141 @@
         <v>1000</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E21" s="3">
         <v>170000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>152000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>134000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>131000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>115000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>109000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>133000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>118000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>33000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>43000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>117000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>75000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>96000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>39000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>75000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>56000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E22" s="3">
         <v>14000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>11000</v>
       </c>
       <c r="F22" s="3">
         <v>11000</v>
       </c>
       <c r="G22" s="3">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="H22" s="3">
         <v>12000</v>
       </c>
       <c r="I22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J22" s="3">
         <v>13000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>14000</v>
       </c>
       <c r="K22" s="3">
         <v>14000</v>
       </c>
       <c r="L22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M22" s="3">
         <v>18000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1693,150 +1732,159 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E23" s="3">
         <v>131000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>121000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>102000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>97000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>81000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>73000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>97000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>82000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-53000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>84000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>38000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>79000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>58000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>39000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E24" s="3">
         <v>37000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>38000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>36000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>339100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-329000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-25000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>34000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>35000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>23000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E26" s="3">
         <v>94000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>87000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>68000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>58000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>49000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>59000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>75000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-76000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-301100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>311000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>30000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>45000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23000</v>
-      </c>
-      <c r="X26" s="3">
-        <v>16000</v>
       </c>
       <c r="Y26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E27" s="3">
         <v>94000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>87000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>67000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>68000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>58000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>49000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>59000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-76000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-301100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>311000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>45000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23000</v>
-      </c>
-      <c r="X27" s="3">
-        <v>16000</v>
       </c>
       <c r="Y27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2148,8 +2208,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2166,32 +2226,35 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>317100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>3000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-453000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,64 +2398,67 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-24000</v>
-      </c>
       <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-15000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>35000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>29000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>42000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>64000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>35000</v>
       </c>
       <c r="P32" s="3">
         <v>35000</v>
       </c>
       <c r="Q32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-16000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>1000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-1000</v>
       </c>
       <c r="V32" s="3">
         <v>-1000</v>
@@ -2398,84 +2467,90 @@
         <v>-1000</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E33" s="3">
         <v>94000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>87000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>67000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>68000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>58000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>49000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>59000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-76000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>311000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>33000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>45000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-449000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23000</v>
-      </c>
-      <c r="X33" s="3">
-        <v>16000</v>
       </c>
       <c r="Y33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E35" s="3">
         <v>94000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>87000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>67000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>68000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>58000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>49000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>59000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-76000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>311000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>33000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>45000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-449000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23000</v>
-      </c>
-      <c r="X35" s="3">
-        <v>16000</v>
       </c>
       <c r="Y35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,68 +2831,69 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E41" s="3">
         <v>251000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>244000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>779000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>686000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>579000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>508000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>517000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>260000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>362000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>338000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>122000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>132000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>142000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>212000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>265000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>184000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>93000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>75000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2817,8 +2903,11 @@
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,68 +2977,71 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1073000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1008000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>876000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>932000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>895000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>875000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>863000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>884000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>704000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>820000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>817000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>845000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>835000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>838000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>821000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>809000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>766000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>756000</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2959,68 +3051,71 @@
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>957000</v>
+      </c>
+      <c r="E44" s="3">
         <v>971000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>922000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>740000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>710000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>684000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>681000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>672000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>618000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>614000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>671000</v>
       </c>
       <c r="N44" s="3">
         <v>671000</v>
       </c>
       <c r="O44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="P44" s="3">
         <v>729000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>722000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>701000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>628000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>603000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>523000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>481000</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3030,68 +3125,71 @@
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E45" s="3">
         <v>186000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>165000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>146000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>179000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>198000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>156000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>173000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>161000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>163000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>164000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>175000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>134000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>147000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>111000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>95000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>72000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>74000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>65000</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3101,68 +3199,71 @@
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2450000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2481000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2339000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2541000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2507000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2356000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2220000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2225000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1923000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1843000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1993000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1785000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1840000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1846000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1862000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1809000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1668000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1456000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1377000</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3172,8 +3273,11 @@
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,68 +3347,71 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E48" s="3">
         <v>535000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>514000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>428000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>424000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>438000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>442000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>451000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>445000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>440000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>433000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>453000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>436000</v>
       </c>
       <c r="P48" s="3">
         <v>436000</v>
       </c>
       <c r="Q48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="R48" s="3">
         <v>413000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>300000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>276000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>264000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>267000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3314,68 +3421,71 @@
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3138000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3158000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3125000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2661000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2671000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2682000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2675000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2691000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2657000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2638000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2612000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2769000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2757000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2777000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2772000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2767000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2776000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2766000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2810000</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3385,8 +3495,11 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,68 +3643,71 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E52" s="3">
         <v>142000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>267000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>223000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>232000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>236000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>239000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>243000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>244000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>245000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>249000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>121000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>101000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>97000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>96000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>21000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28000</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3598,8 +3717,11 @@
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,68 +3791,71 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6262000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6316000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6245000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5853000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5834000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5712000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5576000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5610000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5269000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5166000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5287000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5128000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5133000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5160000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5144000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4972000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4742000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4507000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4482000</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3740,8 +3865,11 @@
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,68 +3923,69 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E57" s="3">
         <v>987000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>958000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>883000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>905000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>915000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>908000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>936000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>858000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>811000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>906000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>920000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>932000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1009000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1013000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>964000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>850000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>774000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>712000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3865,8 +3995,11 @@
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3877,7 +4010,7 @@
         <v>12000</v>
       </c>
       <c r="F58" s="3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G58" s="3">
         <v>10000</v>
@@ -3889,25 +4022,25 @@
         <v>10000</v>
       </c>
       <c r="J58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>181000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>287000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>382000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>88000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>22000</v>
       </c>
       <c r="Q58" s="3">
         <v>22000</v>
@@ -3915,8 +4048,8 @@
       <c r="R58" s="3">
         <v>22000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>22000</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -3936,68 +4069,71 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E59" s="3">
         <v>580000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>576000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>601000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>617000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>586000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>528000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>595000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>606000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>564000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>467000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>552000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>531000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>528000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>524000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>503000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>550000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>459000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>418000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4007,68 +4143,71 @@
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1542000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1579000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1546000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1494000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1532000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1511000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1446000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1538000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1645000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1662000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1755000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1494000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1559000</v>
       </c>
       <c r="Q60" s="3">
         <v>1559000</v>
       </c>
       <c r="R60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="S60" s="3">
         <v>1489000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1233000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1130000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4078,59 +4217,62 @@
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1407000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1410000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1412000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1220000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1222000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1184000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1186000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1155000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1006000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1011000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1149000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1158000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1165000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1169000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1174000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1179000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4149,68 +4291,71 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>913000</v>
+      </c>
+      <c r="E62" s="3">
         <v>933000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>926000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>887000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>922000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>914000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>912000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>924000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1013000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>998000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>862000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>874000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>844000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>839000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>819000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>771000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>657000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>794000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>763000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4220,8 +4365,11 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,68 +4587,71 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3862000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3922000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3884000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3601000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3676000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3609000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3544000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3617000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3664000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3671000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3766000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3526000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3560000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3567000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3552000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3439000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2057000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2027000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1893000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4504,8 +4661,11 @@
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,59 +4985,62 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>561000</v>
+      </c>
+      <c r="E72" s="3">
         <v>498000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>404000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>317000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>250000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>182000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>124000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>75000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>39000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4886,8 +5059,11 @@
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,68 +5281,71 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2394000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2361000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2252000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2158000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2103000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2032000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1993000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1605000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1495000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1521000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1602000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1573000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1593000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1592000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1533000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2685000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2480000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2589000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5170,8 +5355,11 @@
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E81" s="3">
         <v>94000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>87000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>67000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>68000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>58000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>49000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>59000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-76000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>311000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>33000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>45000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-449000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23000</v>
-      </c>
-      <c r="X81" s="3">
-        <v>16000</v>
       </c>
       <c r="Y81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,67 +5612,68 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E83" s="3">
         <v>25000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>22000</v>
       </c>
       <c r="H83" s="3">
         <v>22000</v>
       </c>
       <c r="I83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J83" s="3">
         <v>23000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>22000</v>
       </c>
       <c r="K83" s="3">
         <v>22000</v>
       </c>
       <c r="L83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M83" s="3">
         <v>21000</v>
       </c>
       <c r="N83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="O83" s="3">
         <v>25000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>17000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>17000</v>
       </c>
       <c r="W83" s="3">
         <v>17000</v>
@@ -5484,10 +5682,13 @@
         <v>17000</v>
       </c>
       <c r="Y83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E89" s="3">
         <v>35000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-59000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>112000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>104000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>94000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>152000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>145000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-74000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>93000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-33000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>117000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>132000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>126000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-143000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>111000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>30000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-665000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-51000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-39000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-13000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6554,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>189000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>118000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-106000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-108000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>349000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-75000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>53000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>19000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-102000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-99000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>157000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-88000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>2000</v>
       </c>
       <c r="L101" s="3">
         <v>2000</v>
       </c>
       <c r="M101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N101" s="3">
         <v>-8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="W101" s="3">
-        <v>2000</v>
       </c>
       <c r="X101" s="3">
         <v>2000</v>
       </c>
       <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-535000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>93000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>107000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>71000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>257000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-102000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>216000</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-10000</v>
       </c>
       <c r="O102" s="3">
         <v>-10000</v>
       </c>
       <c r="P102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-53000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>81000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>91000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>10000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,344 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1560000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1618000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1686000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1506000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1454000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1496000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1477000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1419000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1501000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1362000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1029000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1179000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1304000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1226000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1242000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1216000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1266000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1200000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1196000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1165000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1209000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1152000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1096000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1188000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1219000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1072000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1058000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1080000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1096000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1051000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1076000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>990000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>789000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>892000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>930000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>932000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>933000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>903000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>936000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>853000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>850000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>822000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>848000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>816000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>788000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E10" s="3">
         <v>430000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>467000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>434000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>396000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>416000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>381000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>368000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>425000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>372000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>240000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>287000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>374000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>294000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>309000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>313000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>330000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>347000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>346000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>343000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>361000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>336000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>308000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,32 +1029,33 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="3">
         <v>29000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1090,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,64 +1181,67 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E14" s="3">
         <v>43000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>45000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>41000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>35000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>57000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>36000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>59000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-17000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>40000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1238,8 +1258,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1247,11 +1270,11 @@
         <v>10000</v>
       </c>
       <c r="E15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="3">
         <v>9000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1267,8 +1290,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1503000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1506000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1545000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1375000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1348000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1386000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1392000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1348000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1349000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1231000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1035000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1145000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1232000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1167000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1131000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1208000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1218000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1190000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1087000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1188000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1095000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1057000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E18" s="3">
         <v>112000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>141000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>131000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>106000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>110000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>85000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>71000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>152000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>131000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>34000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>72000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>59000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>85000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>58000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-18000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>78000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>57000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>39000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,67 +1546,68 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-35000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-29000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-42000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-35000</v>
       </c>
       <c r="Q20" s="3">
         <v>-35000</v>
       </c>
       <c r="R20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="S20" s="3">
         <v>16000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1000</v>
       </c>
       <c r="W20" s="3">
         <v>1000</v>
@@ -1582,141 +1616,147 @@
         <v>1000</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E21" s="3">
         <v>135000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>170000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>152000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>134000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>131000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>115000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>109000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>133000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>118000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>33000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>117000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>75000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>21000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>96000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>39000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>75000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>56000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E22" s="3">
         <v>15000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11000</v>
       </c>
       <c r="G22" s="3">
         <v>11000</v>
       </c>
       <c r="H22" s="3">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="I22" s="3">
         <v>12000</v>
       </c>
       <c r="J22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K22" s="3">
         <v>13000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>14000</v>
       </c>
       <c r="L22" s="3">
         <v>14000</v>
       </c>
       <c r="M22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N22" s="3">
         <v>18000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1735,156 +1775,165 @@
       <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E23" s="3">
         <v>96000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>131000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>121000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>102000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>97000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>81000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>73000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>97000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>82000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-53000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>84000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>79000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>58000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>39000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>33000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>34000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>36000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>339100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-329000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-25000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>34000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>35000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>23000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E26" s="3">
         <v>63000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>94000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>87000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>68000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>58000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>49000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>75000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-76000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-301100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>311000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>30000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>45000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>23000</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>16000</v>
       </c>
       <c r="Z26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E27" s="3">
         <v>63000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>94000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>87000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>67000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>68000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>58000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>49000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-76000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-301100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>311000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>45000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23000</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>16000</v>
       </c>
       <c r="Z27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2211,8 +2272,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2229,32 +2290,35 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>317100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>3000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-453000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,67 +2468,70 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>35000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>29000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>42000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>64000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>35000</v>
       </c>
       <c r="Q32" s="3">
         <v>35000</v>
       </c>
       <c r="R32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-16000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>1000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-1000</v>
       </c>
       <c r="W32" s="3">
         <v>-1000</v>
@@ -2470,87 +2540,93 @@
         <v>-1000</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E33" s="3">
         <v>63000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>94000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>87000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>68000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>58000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>49000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-76000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>311000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>33000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>45000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-449000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23000</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>16000</v>
       </c>
       <c r="Z33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E35" s="3">
         <v>63000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>94000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>87000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>68000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>58000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>49000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-76000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>311000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>33000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>45000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-449000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23000</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>16000</v>
       </c>
       <c r="Z35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,71 +2918,72 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E41" s="3">
         <v>252000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>251000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>244000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>779000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>686000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>579000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>508000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>517000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>260000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>362000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>338000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>122000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>132000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>142000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>212000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>265000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>184000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>93000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>75000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2906,8 +2993,11 @@
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,71 +3070,74 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1043000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1073000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1008000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>876000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>932000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>895000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>875000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>863000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>884000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>704000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>820000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>817000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>845000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>835000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>838000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>821000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>809000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>766000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>756000</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3054,71 +3147,74 @@
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E44" s="3">
         <v>957000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>971000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>922000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>740000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>710000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>684000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>681000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>672000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>618000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>614000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>671000</v>
       </c>
       <c r="O44" s="3">
         <v>671000</v>
       </c>
       <c r="P44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="Q44" s="3">
         <v>729000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>722000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>701000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>628000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>603000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>523000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>481000</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3128,71 +3224,74 @@
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E45" s="3">
         <v>198000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>186000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>165000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>146000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>179000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>198000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>156000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>173000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>161000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>163000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>164000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>175000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>134000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>147000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>111000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>95000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>72000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>74000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>65000</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3202,71 +3301,74 @@
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2502000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2450000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2481000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2339000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2541000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2507000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2356000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2220000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2225000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1923000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1843000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1993000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1785000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1840000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1846000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1862000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1809000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1668000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1456000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1377000</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3276,8 +3378,11 @@
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3350,71 +3455,74 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E48" s="3">
         <v>538000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>535000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>514000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>428000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>424000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>438000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>442000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>451000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>445000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>440000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>433000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>453000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>436000</v>
       </c>
       <c r="Q48" s="3">
         <v>436000</v>
       </c>
       <c r="R48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="S48" s="3">
         <v>413000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>300000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>276000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>264000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>267000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3424,71 +3532,74 @@
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3199000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3138000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3158000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3125000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2661000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2671000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2682000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2675000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2691000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2657000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2638000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2612000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2769000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2757000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2777000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2772000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2767000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2776000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2766000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2810000</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3498,8 +3609,11 @@
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,71 +3763,74 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E52" s="3">
         <v>136000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>142000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>267000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>223000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>232000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>236000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>239000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>243000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>244000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>245000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>249000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>121000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>101000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>97000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>96000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>22000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>21000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>28000</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3720,8 +3840,11 @@
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,71 +3917,74 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6387000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6262000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6316000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6245000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5853000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5834000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5712000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5576000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5610000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5269000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5166000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5287000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5128000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5133000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5160000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5144000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4972000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4742000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4507000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4482000</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3868,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,71 +4054,72 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E57" s="3">
         <v>936000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>987000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>958000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>883000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>905000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>915000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>908000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>936000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>858000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>811000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>906000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>920000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>932000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1009000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1013000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>964000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>850000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>774000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>712000</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3998,8 +4129,11 @@
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4013,7 +4147,7 @@
         <v>12000</v>
       </c>
       <c r="G58" s="3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="H58" s="3">
         <v>10000</v>
@@ -4025,25 +4159,25 @@
         <v>10000</v>
       </c>
       <c r="K58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L58" s="3">
         <v>7000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>181000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>287000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>382000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>88000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>22000</v>
       </c>
       <c r="R58" s="3">
         <v>22000</v>
@@ -4051,8 +4185,8 @@
       <c r="S58" s="3">
         <v>22000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>22000</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -4072,71 +4206,74 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>640000</v>
+      </c>
+      <c r="E59" s="3">
         <v>594000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>580000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>576000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>601000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>617000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>586000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>528000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>595000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>606000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>564000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>467000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>552000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>531000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>528000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>524000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>503000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>550000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>459000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>418000</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4146,71 +4283,74 @@
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1542000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1579000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1546000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1494000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1532000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1511000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1446000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1538000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1645000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1662000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1755000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1494000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1559000</v>
       </c>
       <c r="R60" s="3">
         <v>1559000</v>
       </c>
       <c r="S60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="T60" s="3">
         <v>1489000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1233000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1130000</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4220,62 +4360,65 @@
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1404000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1407000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1410000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1412000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1220000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1222000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1184000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1186000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1155000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1006000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1011000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1149000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1158000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1165000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1169000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1174000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1179000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4294,71 +4437,74 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>908000</v>
+      </c>
+      <c r="E62" s="3">
         <v>913000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>933000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>926000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>887000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>922000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>914000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>912000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>924000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1013000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>998000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>862000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>874000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>844000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>839000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>819000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>771000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>657000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>794000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>763000</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4368,8 +4514,11 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,71 +4745,74 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3858000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3862000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3922000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3884000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3601000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3676000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3609000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3544000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3617000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3664000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3671000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3766000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3526000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3560000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3567000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3552000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3439000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2057000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2027000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1893000</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4664,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,62 +5159,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E72" s="3">
         <v>561000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>498000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>404000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>317000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>250000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>182000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>124000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>75000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-59000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>38000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>39000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>50000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5062,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,71 +5467,74 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2529000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2400000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2394000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2361000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2252000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2158000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2103000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2032000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1993000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1605000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1495000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1521000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1602000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1573000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1593000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1592000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1533000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2685000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2480000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2589000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5358,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E81" s="3">
         <v>63000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>94000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>87000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>68000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>58000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>49000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-76000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>311000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>33000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>45000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-449000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23000</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>16000</v>
       </c>
       <c r="Z81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,70 +5811,71 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E83" s="3">
         <v>24000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>22000</v>
       </c>
       <c r="I83" s="3">
         <v>22000</v>
       </c>
       <c r="J83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K83" s="3">
         <v>23000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>22000</v>
       </c>
       <c r="L83" s="3">
         <v>22000</v>
       </c>
       <c r="M83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="N83" s="3">
         <v>21000</v>
       </c>
       <c r="O83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="P83" s="3">
         <v>25000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>17000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>20000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>17000</v>
       </c>
       <c r="X83" s="3">
         <v>17000</v>
@@ -5685,10 +5884,13 @@
         <v>17000</v>
       </c>
       <c r="Z83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E89" s="3">
         <v>37000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-59000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>112000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>104000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>94000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>152000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>145000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-74000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>93000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-27000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>117000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>132000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>126000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-143000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>111000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>30000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-665000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-51000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-39000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-13000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7022,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>189000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>118000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-106000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-108000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>349000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-75000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>53000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-23000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>19000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>15000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-102000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-99000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>157000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-88000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-13000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>2000</v>
       </c>
       <c r="M101" s="3">
         <v>2000</v>
       </c>
       <c r="N101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>2000</v>
       </c>
       <c r="Y101" s="3">
         <v>2000</v>
       </c>
       <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-535000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>93000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>107000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>71000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>257000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-102000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>216000</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-10000</v>
       </c>
       <c r="P102" s="3">
         <v>-10000</v>
       </c>
       <c r="Q102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="R102" s="3">
         <v>-70000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-53000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>81000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>91000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>10000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,190 +665,197 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1549000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1560000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1618000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1686000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1506000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1454000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1496000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1477000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1419000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1501000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1362000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1029000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1179000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1304000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1226000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1242000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1216000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1266000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1200000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1196000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1165000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1209000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1152000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1096000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -856,153 +863,159 @@
         <v>1129000</v>
       </c>
       <c r="E9" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1188000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1219000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1072000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1058000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1080000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1096000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1051000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1076000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>990000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>789000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>892000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>930000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>932000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>933000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>903000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>936000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>853000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>850000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>822000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>848000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>816000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>788000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E10" s="3">
         <v>431000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>430000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>467000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>434000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>396000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>416000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>381000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>368000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>425000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>372000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>240000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>287000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>374000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>294000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>309000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>313000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>330000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>347000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>346000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>343000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>361000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>336000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>308000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,35 +1043,36 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E12" s="3">
         <v>30000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1121,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,67 +1201,70 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E14" s="3">
         <v>76000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>43000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>45000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>41000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>57000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>36000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>59000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>40000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1261,23 +1281,26 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="E15" s="3">
         <v>10000</v>
       </c>
       <c r="F15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="3">
         <v>9000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1293,8 +1316,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1338,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1452000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1503000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1506000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1545000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1375000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1348000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1386000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1392000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1348000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1349000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1231000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1035000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1145000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1232000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1167000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1131000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1208000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1218000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1190000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1087000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1188000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1095000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1057000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E18" s="3">
         <v>57000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>112000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>141000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>131000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>106000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>110000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>85000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>71000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>152000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>131000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>34000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>72000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>59000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>42000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>85000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>58000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-18000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>78000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>21000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>57000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>39000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,70 +1580,71 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>31000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-35000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-29000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-35000</v>
       </c>
       <c r="R20" s="3">
         <v>-35000</v>
       </c>
       <c r="S20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="T20" s="3">
         <v>16000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1000</v>
       </c>
       <c r="X20" s="3">
         <v>1000</v>
@@ -1619,90 +1653,96 @@
         <v>1000</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E21" s="3">
         <v>113000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>135000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>170000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>152000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>134000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>131000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>115000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>109000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>133000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>118000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>33000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>117000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>75000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>21000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>96000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>39000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>75000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>56000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1710,56 +1750,56 @@
         <v>18000</v>
       </c>
       <c r="E22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F22" s="3">
         <v>15000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>11000</v>
       </c>
       <c r="H22" s="3">
         <v>11000</v>
       </c>
       <c r="I22" s="3">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="J22" s="3">
         <v>12000</v>
       </c>
       <c r="K22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L22" s="3">
         <v>13000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>14000</v>
       </c>
       <c r="M22" s="3">
         <v>14000</v>
       </c>
       <c r="N22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O22" s="3">
         <v>18000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1778,162 +1818,171 @@
       <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E23" s="3">
         <v>70000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>96000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>131000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>121000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>102000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>97000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>81000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>73000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>97000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>82000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-53000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>84000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>38000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>79000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>58000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>39000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E24" s="3">
         <v>31000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>33000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>34000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>29000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>36000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>339100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-329000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-25000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>34000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>35000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E26" s="3">
         <v>39000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>63000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>94000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>87000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>67000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>68000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>58000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>49000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>59000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>75000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-76000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-301100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>311000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>30000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>45000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23000</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>16000</v>
       </c>
       <c r="AA26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E27" s="3">
         <v>39000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>63000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>94000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>87000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>67000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>68000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>58000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>49000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>59000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>75000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-76000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-301100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>311000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>45000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23000</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>16000</v>
       </c>
       <c r="AA27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2275,8 +2336,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2293,32 +2354,35 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>317100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>3000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-453000</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,70 +2538,73 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-31000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>35000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>29000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>64000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>35000</v>
       </c>
       <c r="R32" s="3">
         <v>35000</v>
       </c>
       <c r="S32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-16000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>1000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-1000</v>
       </c>
       <c r="X32" s="3">
         <v>-1000</v>
@@ -2543,90 +2613,96 @@
         <v>-1000</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E33" s="3">
         <v>39000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>63000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>94000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>87000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>68000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>58000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>49000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>59000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-76000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>311000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>33000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>45000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-449000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23000</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>16000</v>
       </c>
       <c r="AA33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E35" s="3">
         <v>39000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>63000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>94000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>87000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>68000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>58000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>49000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>59000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-76000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>311000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>33000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>45000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-449000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23000</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>16000</v>
       </c>
       <c r="AA35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,74 +3005,75 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E41" s="3">
         <v>326000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>252000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>251000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>244000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>779000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>686000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>579000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>508000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>517000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>260000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>362000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>338000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>122000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>132000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>142000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>212000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>265000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>184000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>93000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>75000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2996,8 +3083,11 @@
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3073,74 +3163,77 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>985000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1002000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1043000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1073000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1008000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>876000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>932000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>895000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>875000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>863000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>884000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>704000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>820000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>817000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>845000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>835000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>838000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>821000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>809000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>766000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>756000</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3150,74 +3243,77 @@
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E44" s="3">
         <v>975000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>957000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>971000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>922000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>740000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>710000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>684000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>681000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>672000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>618000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>614000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>671000</v>
       </c>
       <c r="P44" s="3">
         <v>671000</v>
       </c>
       <c r="Q44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="R44" s="3">
         <v>729000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>722000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>701000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>628000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>603000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>523000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>481000</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3227,74 +3323,77 @@
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E45" s="3">
         <v>199000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>198000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>186000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>165000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>146000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>179000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>198000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>156000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>173000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>161000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>163000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>164000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>175000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>134000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>147000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>111000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>95000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>72000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>74000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>65000</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3304,74 +3403,77 @@
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2495000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2502000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2450000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2481000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2339000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2541000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2507000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2356000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2220000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2225000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1923000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1843000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1993000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1785000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1840000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1846000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1862000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1809000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1668000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1456000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1377000</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3381,8 +3483,11 @@
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3458,74 +3563,77 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E48" s="3">
         <v>557000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>538000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>535000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>514000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>428000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>424000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>438000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>442000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>451000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>445000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>440000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>433000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>453000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>436000</v>
       </c>
       <c r="R48" s="3">
         <v>436000</v>
       </c>
       <c r="S48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="T48" s="3">
         <v>413000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>300000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>276000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>264000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>267000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3535,74 +3643,77 @@
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3207000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3199000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3138000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3158000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3125000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2661000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2671000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2682000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2675000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2691000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2657000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2638000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2612000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2769000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2757000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2777000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2772000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2767000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2776000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2766000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2810000</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3612,8 +3723,11 @@
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,74 +3883,77 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E52" s="3">
         <v>129000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>136000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>142000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>267000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>223000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>232000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>236000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>239000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>243000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>244000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>245000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>249000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>121000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>101000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>97000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>96000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>21000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>28000</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3843,8 +3963,11 @@
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,74 +4043,77 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6399000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6387000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6262000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6316000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6245000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5853000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5834000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5712000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5576000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5610000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5269000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5166000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5287000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5128000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5133000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5160000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5144000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4972000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4742000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4507000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4482000</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3997,8 +4123,11 @@
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,8 +4185,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4064,65 +4195,65 @@
         <v>894000</v>
       </c>
       <c r="E57" s="3">
+        <v>894000</v>
+      </c>
+      <c r="F57" s="3">
         <v>936000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>987000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>958000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>883000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>905000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>915000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>908000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>936000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>858000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>811000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>906000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>920000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>932000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1009000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1013000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>964000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>850000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>774000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>712000</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4132,8 +4263,11 @@
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4150,7 +4284,7 @@
         <v>12000</v>
       </c>
       <c r="H58" s="3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="I58" s="3">
         <v>10000</v>
@@ -4162,25 +4296,25 @@
         <v>10000</v>
       </c>
       <c r="L58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M58" s="3">
         <v>7000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>181000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>287000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>382000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>88000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>22000</v>
       </c>
       <c r="S58" s="3">
         <v>22000</v>
@@ -4188,8 +4322,8 @@
       <c r="T58" s="3">
         <v>22000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="U58" s="3">
+        <v>22000</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -4209,74 +4343,77 @@
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>563000</v>
+      </c>
+      <c r="E59" s="3">
         <v>640000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>594000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>580000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>576000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>601000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>617000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>586000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>528000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>595000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>606000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>564000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>467000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>552000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>531000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>528000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>524000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>503000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>550000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>459000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>418000</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4286,74 +4423,77 @@
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1469000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1546000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1542000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1579000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1546000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1494000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1532000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1511000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1446000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1538000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1645000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1662000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1755000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1494000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1559000</v>
       </c>
       <c r="S60" s="3">
         <v>1559000</v>
       </c>
       <c r="T60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="U60" s="3">
         <v>1489000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1233000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1130000</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4363,65 +4503,68 @@
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1402000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1404000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1407000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1410000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1412000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1220000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1222000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1184000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1186000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1155000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1006000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1011000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1149000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1158000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1165000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1169000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1174000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1179000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4440,74 +4583,77 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>924000</v>
+      </c>
+      <c r="E62" s="3">
         <v>908000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>913000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>933000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>926000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>887000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>922000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>914000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>912000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>924000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1013000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>998000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>862000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>874000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>844000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>839000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>819000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>771000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>657000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>794000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>763000</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4517,8 +4663,11 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,74 +4903,77 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3795000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3858000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3862000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3922000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3884000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3601000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3676000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3609000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3544000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3617000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3664000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3671000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3766000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3526000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3560000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3567000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3552000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3439000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2057000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2027000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1893000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4825,8 +4983,11 @@
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,65 +5333,68 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E72" s="3">
         <v>600000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>561000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>498000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>404000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>317000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>250000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>182000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>124000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>75000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-59000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>38000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>39000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5239,8 +5413,11 @@
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,74 +5653,77 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2604000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2529000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2400000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2394000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2361000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2252000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2158000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2103000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2032000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1993000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1605000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1495000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1521000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1602000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1573000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1593000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1592000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1533000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2685000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2480000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2589000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5547,8 +5733,11 @@
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E81" s="3">
         <v>39000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>63000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>94000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>87000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>68000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>58000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>49000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>59000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-76000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>311000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>33000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>45000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-449000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23000</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>16000</v>
       </c>
       <c r="AA81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,73 +6010,74 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E83" s="3">
         <v>25000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>22000</v>
       </c>
       <c r="J83" s="3">
         <v>22000</v>
       </c>
       <c r="K83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="L83" s="3">
         <v>23000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>22000</v>
       </c>
       <c r="M83" s="3">
         <v>22000</v>
       </c>
       <c r="N83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O83" s="3">
         <v>21000</v>
       </c>
       <c r="P83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>25000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>19000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>17000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>20000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>17000</v>
       </c>
       <c r="Y83" s="3">
         <v>17000</v>
@@ -5887,10 +6086,13 @@
         <v>17000</v>
       </c>
       <c r="AA83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>139000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>37000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-59000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>112000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>104000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>94000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>152000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>145000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-74000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>93000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-33000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-27000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>87000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>117000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>132000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>126000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-143000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>111000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>30000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-51000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-57000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-665000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-51000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-39000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6950,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7028,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,235 +7268,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>189000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>118000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-106000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-108000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>349000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>53000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-23000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>19000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>15000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-102000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-99000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>157000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-88000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-13000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>2000</v>
       </c>
       <c r="N101" s="3">
         <v>2000</v>
       </c>
       <c r="O101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P101" s="3">
         <v>-8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>2000</v>
       </c>
       <c r="Z101" s="3">
         <v>2000</v>
       </c>
       <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E102" s="3">
         <v>74000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-535000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>93000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>107000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>71000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>257000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-102000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>24000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>216000</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-10000</v>
       </c>
       <c r="Q102" s="3">
         <v>-10000</v>
       </c>
       <c r="R102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="S102" s="3">
         <v>-70000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-53000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>81000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>91000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>19000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>10000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,369 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1549000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1560000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1618000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1686000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1506000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1454000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1496000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1477000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1419000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1501000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1362000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1029000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1179000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1304000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1226000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1242000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1216000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1266000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1200000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1196000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1165000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1209000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1152000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1096000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1129000</v>
+        <v>1166000</v>
       </c>
       <c r="E9" s="3">
         <v>1129000</v>
       </c>
       <c r="F9" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1188000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1219000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1072000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1058000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1080000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1096000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1051000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1076000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>990000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>789000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>892000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>930000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>932000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>933000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>903000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>936000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>853000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>850000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>822000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>848000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>816000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>788000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E10" s="3">
         <v>420000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>431000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>430000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>467000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>434000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>396000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>416000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>381000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>368000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>425000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>372000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>240000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>287000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>374000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>294000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>309000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>313000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>330000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>347000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>346000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>343000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>361000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>336000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>308000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,38 +1056,39 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E12" s="3">
         <v>27000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1137,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,70 +1220,73 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>43000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>76000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>43000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>45000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>41000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>57000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>36000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>59000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-17000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>40000</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1284,26 +1303,29 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="3">
         <v>9000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10000</v>
       </c>
       <c r="F15" s="3">
         <v>10000</v>
       </c>
       <c r="G15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="3">
         <v>9000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1319,8 +1341,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1364,8 +1386,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1449000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1452000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1503000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1506000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1545000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1375000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1348000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1386000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1392000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1348000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1349000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1231000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1035000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1145000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1232000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1167000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1131000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1208000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1218000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1190000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1087000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1188000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1095000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1057000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E18" s="3">
         <v>97000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>57000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>112000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>141000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>131000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>106000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>110000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>85000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>71000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>152000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>131000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>34000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>72000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>59000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>42000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>85000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>58000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-18000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>78000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>21000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>57000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>39000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,73 +1613,74 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>31000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-35000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-29000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-35000</v>
       </c>
       <c r="S20" s="3">
         <v>-35000</v>
       </c>
       <c r="T20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="U20" s="3">
         <v>16000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1000</v>
       </c>
       <c r="Y20" s="3">
         <v>1000</v>
@@ -1656,153 +1689,159 @@
         <v>1000</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E21" s="3">
         <v>123000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>113000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>135000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>170000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>152000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>134000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>131000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>115000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>109000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>133000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>118000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-14000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>33000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>117000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>75000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>21000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>96000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>39000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>75000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>56000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="E22" s="3">
         <v>18000</v>
       </c>
       <c r="F22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G22" s="3">
         <v>15000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>11000</v>
       </c>
       <c r="I22" s="3">
         <v>11000</v>
       </c>
       <c r="J22" s="3">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="K22" s="3">
         <v>12000</v>
       </c>
       <c r="L22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M22" s="3">
         <v>13000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>14000</v>
       </c>
       <c r="N22" s="3">
         <v>14000</v>
       </c>
       <c r="O22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P22" s="3">
         <v>18000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20000</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1821,168 +1860,177 @@
       <c r="AB22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E23" s="3">
         <v>81000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>70000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>96000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>131000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>121000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>102000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>97000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>81000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>97000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>82000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-53000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>84000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>38000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-18000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>79000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>22000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>58000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>39000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E24" s="3">
         <v>24000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>33000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>34000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>29000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1000</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>36000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>339100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-329000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-25000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>34000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>18000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>35000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E26" s="3">
         <v>57000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>39000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>63000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>94000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>87000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>67000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>68000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>58000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>49000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>59000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>75000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-76000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-301100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>311000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>30000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>45000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>23000</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>16000</v>
       </c>
       <c r="AB26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E27" s="3">
         <v>57000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>39000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>63000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>94000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>87000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>67000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>68000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>58000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>49000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>59000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>75000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-76000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-301100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>311000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>30000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>45000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>23000</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>16000</v>
       </c>
       <c r="AB27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2358,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2339,8 +2399,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2357,32 +2417,35 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>317100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>3000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-453000</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,73 +2607,76 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-31000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>35000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>29000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>42000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>64000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>35000</v>
       </c>
       <c r="S32" s="3">
         <v>35000</v>
       </c>
       <c r="T32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-16000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>1000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-1000</v>
       </c>
       <c r="Y32" s="3">
         <v>-1000</v>
@@ -2616,93 +2685,99 @@
         <v>-1000</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E33" s="3">
         <v>57000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>39000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>63000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>94000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>87000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>67000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>68000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>58000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>49000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>59000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-76000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>311000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>33000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>45000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-449000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>23000</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>16000</v>
       </c>
       <c r="AB33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E35" s="3">
         <v>57000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>39000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>63000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>94000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>87000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>67000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>68000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>58000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>49000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>59000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-76000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>311000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>33000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>45000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-449000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>23000</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>16000</v>
       </c>
       <c r="AB35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,77 +3091,78 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E41" s="3">
         <v>292000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>326000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>252000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>251000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>244000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>779000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>686000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>579000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>508000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>517000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>260000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>362000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>338000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>122000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>132000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>142000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>212000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>265000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>184000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>93000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>75000</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3086,8 +3172,11 @@
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3166,77 +3255,80 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E43" s="3">
         <v>985000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1002000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1043000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1073000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1008000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>876000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>932000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>895000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>875000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>863000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>884000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>704000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>820000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>817000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>845000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>835000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>838000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>821000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>809000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>766000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>756000</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3246,77 +3338,80 @@
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1008000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>975000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>957000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>971000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>922000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>740000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>710000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>684000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>681000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>672000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>618000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>614000</v>
-      </c>
-      <c r="P44" s="3">
-        <v>671000</v>
       </c>
       <c r="Q44" s="3">
         <v>671000</v>
       </c>
       <c r="R44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="S44" s="3">
         <v>729000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>722000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>701000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>628000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>603000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>523000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>481000</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3326,77 +3421,80 @@
       <c r="AB44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E45" s="3">
         <v>210000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>199000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>198000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>186000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>165000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>146000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>179000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>198000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>156000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>173000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>161000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>163000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>164000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>175000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>134000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>147000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>111000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>95000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>72000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>74000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>65000</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3406,77 +3504,80 @@
       <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2622000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2495000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2502000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2450000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2481000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2339000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2541000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2507000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2356000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2220000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2225000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1923000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1843000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1993000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1785000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1840000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1846000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1862000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1809000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1668000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1456000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1377000</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3486,8 +3587,11 @@
       <c r="AB46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3566,77 +3670,80 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E48" s="3">
         <v>571000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>557000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>538000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>535000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>514000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>428000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>424000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>438000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>442000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>451000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>445000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>440000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>433000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>453000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>436000</v>
       </c>
       <c r="S48" s="3">
         <v>436000</v>
       </c>
       <c r="T48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="U48" s="3">
         <v>413000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>300000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>276000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>264000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>267000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3646,77 +3753,80 @@
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3204000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3207000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3199000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3138000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3158000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3125000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2661000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2671000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2682000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2675000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2691000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2657000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2638000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2612000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2769000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2757000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2777000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2772000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2767000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2776000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2766000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2810000</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3726,8 +3836,11 @@
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,77 +4002,80 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E52" s="3">
         <v>126000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>129000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>136000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>142000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>267000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>223000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>232000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>236000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>239000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>243000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>244000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>245000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>249000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>121000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>101000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>97000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>96000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>21000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>28000</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3966,8 +4085,11 @@
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,77 +4168,80 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6536000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6399000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6387000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6262000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6316000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6245000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5853000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5834000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5712000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5576000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5610000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5269000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5166000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5287000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5128000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5133000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5160000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5144000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4972000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4742000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4507000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4482000</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4126,8 +4251,11 @@
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,77 +4315,78 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>894000</v>
+        <v>948000</v>
       </c>
       <c r="E57" s="3">
         <v>894000</v>
       </c>
       <c r="F57" s="3">
+        <v>894000</v>
+      </c>
+      <c r="G57" s="3">
         <v>936000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>987000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>958000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>883000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>905000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>915000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>908000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>936000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>858000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>811000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>906000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>920000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>932000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1009000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1013000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>964000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>850000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>774000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>712000</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4266,8 +4396,11 @@
       <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4287,7 +4420,7 @@
         <v>12000</v>
       </c>
       <c r="I58" s="3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="J58" s="3">
         <v>10000</v>
@@ -4299,25 +4432,25 @@
         <v>10000</v>
       </c>
       <c r="M58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N58" s="3">
         <v>7000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>181000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>287000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>382000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>22000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>88000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>22000</v>
       </c>
       <c r="T58" s="3">
         <v>22000</v>
@@ -4325,8 +4458,8 @@
       <c r="U58" s="3">
         <v>22000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>22000</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4346,77 +4479,80 @@
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>564000</v>
+      </c>
+      <c r="E59" s="3">
         <v>563000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>640000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>594000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>580000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>576000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>601000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>617000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>586000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>528000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>595000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>606000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>564000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>467000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>552000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>531000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>528000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>524000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>503000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>550000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>459000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>418000</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4426,77 +4562,80 @@
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1469000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1546000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1542000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1579000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1546000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1494000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1532000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1511000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1446000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1538000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1645000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1662000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1755000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1494000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1559000</v>
       </c>
       <c r="T60" s="3">
         <v>1559000</v>
       </c>
       <c r="U60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="V60" s="3">
         <v>1489000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1233000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1130000</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4506,68 +4645,71 @@
       <c r="AB60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1402000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1404000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1407000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1410000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1412000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1220000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1222000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1184000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1186000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1155000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1006000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1011000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1149000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1158000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1165000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1169000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1174000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1179000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4586,77 +4728,80 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>935000</v>
+      </c>
+      <c r="E62" s="3">
         <v>924000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>908000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>913000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>933000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>926000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>887000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>922000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>914000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>912000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>924000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1013000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>998000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>862000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>874000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>844000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>839000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>819000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>771000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>657000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>794000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>763000</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4666,8 +4811,11 @@
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,77 +5060,80 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3859000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3795000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3858000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3862000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3922000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3884000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3601000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3676000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3609000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3544000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3617000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3664000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3671000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3766000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3526000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3560000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3567000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3552000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3439000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2057000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2027000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1893000</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4986,8 +5143,11 @@
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,68 +5506,71 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>707000</v>
+      </c>
+      <c r="E72" s="3">
         <v>657000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>600000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>561000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>498000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>404000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>317000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>250000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>182000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>124000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>75000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-59000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>38000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>39000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>50000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5416,8 +5589,11 @@
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,77 +5838,80 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2677000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2604000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2529000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2400000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2394000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2361000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2252000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2158000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2103000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2032000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1993000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1605000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1495000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1521000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1602000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1573000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1593000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1592000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1533000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2685000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2480000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2589000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5736,8 +5921,11 @@
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E81" s="3">
         <v>57000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>39000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>63000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>94000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>87000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>67000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>68000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>58000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>49000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>59000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-76000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>311000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>33000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>45000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-449000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>23000</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>16000</v>
       </c>
       <c r="AB81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,76 +6208,77 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E83" s="3">
         <v>24000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>22000</v>
       </c>
       <c r="K83" s="3">
         <v>22000</v>
       </c>
       <c r="L83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="M83" s="3">
         <v>23000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>22000</v>
       </c>
       <c r="N83" s="3">
         <v>22000</v>
       </c>
       <c r="O83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P83" s="3">
         <v>21000</v>
       </c>
       <c r="Q83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="R83" s="3">
         <v>25000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>17000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>16000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>20000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>17000</v>
       </c>
       <c r="Z83" s="3">
         <v>17000</v>
@@ -6089,10 +6287,13 @@
         <v>17000</v>
       </c>
       <c r="AB83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="AC83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>139000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>37000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-59000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>112000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>104000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>94000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>152000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>145000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>93000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-33000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-27000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>87000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>117000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>132000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>126000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-143000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>111000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>30000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +6820,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-51000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-40000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7067,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-57000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-37000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-665000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-34000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-39000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7183,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7031,8 +7264,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,8 +7513,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7280,235 +7525,244 @@
         <v>-9000</v>
       </c>
       <c r="E100" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-12000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>189000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>118000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-106000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-108000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>349000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-75000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>53000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-23000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>19000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>15000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-102000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-99000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>157000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-88000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-13000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>2000</v>
       </c>
       <c r="O101" s="3">
         <v>2000</v>
       </c>
       <c r="P101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>2000</v>
       </c>
       <c r="AA101" s="3">
         <v>2000</v>
       </c>
       <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>74000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-535000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>93000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>107000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>71000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>257000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-102000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>216000</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-10000</v>
       </c>
       <c r="R102" s="3">
         <v>-10000</v>
       </c>
       <c r="S102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="T102" s="3">
         <v>-70000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-53000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>81000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>91000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>19000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>10000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REZI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,382 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1602000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1549000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1560000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1618000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1686000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1506000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1454000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1496000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1477000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1419000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1501000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1362000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1029000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1179000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1304000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1226000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1242000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1216000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1266000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1200000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1196000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1165000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1209000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1152000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1096000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1062000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1137000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1166000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1129000</v>
       </c>
       <c r="F9" s="3">
         <v>1129000</v>
       </c>
       <c r="G9" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="H9" s="3">
         <v>1188000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1219000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1072000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1058000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1080000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1096000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1051000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1076000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>990000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>789000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>892000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>930000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>932000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>933000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>903000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>936000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>853000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>850000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>822000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>848000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>816000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>788000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>751000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>417000</v>
+      </c>
+      <c r="E10" s="3">
         <v>436000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>420000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>431000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>430000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>467000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>434000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>396000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>416000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>381000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>368000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>425000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>372000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>240000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>287000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>374000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>294000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>309000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>313000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>330000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>347000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>346000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>343000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>361000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>336000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>308000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>311000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,41 +1070,42 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E12" s="3">
         <v>29000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1140,8 +1154,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,73 +1240,76 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>81000</v>
       </c>
       <c r="E14" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F14" s="3">
         <v>43000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>76000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>43000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>45000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>41000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>35000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>57000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>36000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>59000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-17000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>40000</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1306,29 +1326,32 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="3">
         <v>10000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>10000</v>
       </c>
       <c r="G15" s="3">
         <v>10000</v>
       </c>
       <c r="H15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I15" s="3">
         <v>9000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1344,8 +1367,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1389,8 +1412,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1449000</v>
+        <v>1488000</v>
       </c>
       <c r="E17" s="3">
+        <v>1493000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1452000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1503000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1506000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1545000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1375000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1348000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1386000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1392000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1348000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1349000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1231000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1035000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1145000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1232000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1167000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1131000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1208000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1218000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1190000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1087000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1188000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1095000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1057000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1015000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>153000</v>
+        <v>66000</v>
       </c>
       <c r="E18" s="3">
+        <v>109000</v>
+      </c>
+      <c r="F18" s="3">
         <v>97000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>57000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>112000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>141000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>131000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>106000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>110000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>71000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>152000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>131000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>72000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>59000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>42000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>85000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>58000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-18000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>78000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>21000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>57000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>39000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,76 +1647,77 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-42000</v>
+        <v>-13000</v>
       </c>
       <c r="E20" s="3">
         <v>2000</v>
       </c>
       <c r="F20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="3">
         <v>31000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-41000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-42000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-64000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-35000</v>
       </c>
       <c r="T20" s="3">
         <v>-35000</v>
       </c>
       <c r="U20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="V20" s="3">
         <v>16000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1000</v>
       </c>
       <c r="Z20" s="3">
         <v>1000</v>
@@ -1692,159 +1726,165 @@
         <v>1000</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E21" s="3">
         <v>136000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>123000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>113000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>135000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>170000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>152000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>134000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>131000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>115000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>109000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>133000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>118000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>33000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>43000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>117000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>75000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>21000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>96000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>39000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>75000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>56000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E22" s="3">
         <v>17000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>18000</v>
       </c>
       <c r="F22" s="3">
         <v>18000</v>
       </c>
       <c r="G22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H22" s="3">
         <v>15000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>11000</v>
       </c>
       <c r="J22" s="3">
         <v>11000</v>
       </c>
       <c r="K22" s="3">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L22" s="3">
         <v>12000</v>
       </c>
       <c r="M22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N22" s="3">
         <v>13000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>14000</v>
       </c>
       <c r="O22" s="3">
         <v>14000</v>
       </c>
       <c r="P22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>18000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>18000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>20000</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1863,174 +1903,183 @@
       <c r="AC22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E23" s="3">
         <v>94000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>81000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>70000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>96000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>131000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>121000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>102000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>97000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>81000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>97000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>82000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>84000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>38000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-18000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>79000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>22000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>58000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>39000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>44000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1000</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>36000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>339100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-329000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>34000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>18000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>35000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>23000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E26" s="3">
         <v>50000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>57000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>39000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>63000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>94000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>87000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>67000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>68000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>58000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>49000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>59000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>75000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-301100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>311000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>30000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>45000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>23000</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>16000</v>
       </c>
       <c r="AC26" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E27" s="3">
         <v>50000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>57000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>39000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>63000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>94000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>87000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>67000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>68000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>58000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>49000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>59000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>75000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-21000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-301100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>311000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>30000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>45000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>23000</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>16000</v>
       </c>
       <c r="AC27" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,8 +2419,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2402,8 +2463,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2420,32 +2481,35 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>317100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>3000</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-453000</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,76 +2677,79 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>42000</v>
+        <v>13000</v>
       </c>
       <c r="E32" s="3">
         <v>-2000</v>
       </c>
       <c r="F32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-31000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>41000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>29000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>42000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>64000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>35000</v>
       </c>
       <c r="T32" s="3">
         <v>35000</v>
       </c>
       <c r="U32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-16000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-1000</v>
       </c>
       <c r="Z32" s="3">
         <v>-1000</v>
@@ -2688,96 +2758,102 @@
         <v>-1000</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E33" s="3">
         <v>50000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>57000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>63000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>94000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>87000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>67000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>68000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>58000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>49000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>59000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>75000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-21000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>311000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>33000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>45000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-449000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>23000</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>16000</v>
       </c>
       <c r="AC33" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E35" s="3">
         <v>50000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>57000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>63000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>94000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>87000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>67000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>68000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>58000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>49000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>59000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>75000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-21000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>311000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>33000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>45000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-449000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>23000</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>16000</v>
       </c>
       <c r="AC35" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,80 +3178,81 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E41" s="3">
         <v>381000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>292000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>326000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>252000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>251000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>244000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>779000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>686000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>579000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>508000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>517000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>260000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>362000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>338000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>122000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>132000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>142000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>212000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>265000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>184000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>93000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>75000</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3175,8 +3262,11 @@
       <c r="AC41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3258,80 +3348,83 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>988000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1043000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>985000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1002000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1043000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1073000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1008000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>876000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>932000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>895000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>875000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>863000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>884000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>704000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>820000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>817000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>845000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>835000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>838000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>821000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>809000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>766000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>756000</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3341,80 +3434,83 @@
       <c r="AC43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>970000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1001000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1008000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>975000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>957000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>971000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>922000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>740000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>710000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>684000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>681000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>672000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>618000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>614000</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>671000</v>
       </c>
       <c r="R44" s="3">
         <v>671000</v>
       </c>
       <c r="S44" s="3">
+        <v>671000</v>
+      </c>
+      <c r="T44" s="3">
         <v>729000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>722000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>701000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>628000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>603000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>523000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>481000</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3424,80 +3520,83 @@
       <c r="AC44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E45" s="3">
         <v>197000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>210000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>199000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>198000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>186000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>165000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>146000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>179000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>198000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>156000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>173000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>161000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>163000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>164000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>175000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>134000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>147000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>111000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>95000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>72000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>74000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>65000</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3507,80 +3606,83 @@
       <c r="AC45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2615000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2622000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2495000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2502000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2450000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2481000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2339000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2541000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2507000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2356000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2220000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2225000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1923000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1843000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1993000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1785000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1840000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1846000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1862000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1809000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1668000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1456000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1377000</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3590,8 +3692,11 @@
       <c r="AC46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3673,80 +3778,83 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E48" s="3">
         <v>580000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>571000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>557000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>538000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>535000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>514000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>428000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>424000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>438000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>442000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>451000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>445000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>440000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>433000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>453000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>436000</v>
       </c>
       <c r="T48" s="3">
         <v>436000</v>
       </c>
       <c r="U48" s="3">
+        <v>436000</v>
+      </c>
+      <c r="V48" s="3">
         <v>413000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>300000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>276000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>264000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>267000</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3756,80 +3864,83 @@
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3143000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3204000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3207000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3199000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3138000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3158000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3125000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2661000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2671000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2682000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2675000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2691000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2657000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2638000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2612000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2769000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2757000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2777000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2772000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2767000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2776000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2766000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2810000</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3839,8 +3950,11 @@
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,80 +4122,83 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E52" s="3">
         <v>130000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>126000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>129000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>136000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>142000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>267000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>223000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>232000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>236000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>239000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>243000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>244000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>245000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>249000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>121000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>100000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>101000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>97000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>96000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>22000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>21000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>28000</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4088,8 +4208,11 @@
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,80 +4294,83 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6459000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6536000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6399000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6387000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6262000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6316000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6245000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5853000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5834000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5712000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5576000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5610000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5269000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5166000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5287000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5128000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5133000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5160000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5144000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4972000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4742000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4507000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4482000</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4254,8 +4380,11 @@
       <c r="AC54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,80 +4446,81 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>863000</v>
+      </c>
+      <c r="E57" s="3">
         <v>948000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>894000</v>
       </c>
       <c r="F57" s="3">
         <v>894000</v>
       </c>
       <c r="G57" s="3">
+        <v>894000</v>
+      </c>
+      <c r="H57" s="3">
         <v>936000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>987000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>958000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>883000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>905000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>915000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>908000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>936000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>858000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>811000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>906000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>920000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>932000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1009000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1013000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>964000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>850000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>774000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>712000</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4399,8 +4530,11 @@
       <c r="AC57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4423,7 +4557,7 @@
         <v>12000</v>
       </c>
       <c r="J58" s="3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K58" s="3">
         <v>10000</v>
@@ -4435,25 +4569,25 @@
         <v>10000</v>
       </c>
       <c r="N58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O58" s="3">
         <v>7000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>181000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>287000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>382000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>22000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>88000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>22000</v>
       </c>
       <c r="U58" s="3">
         <v>22000</v>
@@ -4461,8 +4595,8 @@
       <c r="V58" s="3">
         <v>22000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
+      <c r="W58" s="3">
+        <v>22000</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
@@ -4482,80 +4616,83 @@
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E59" s="3">
         <v>564000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>563000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>640000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>594000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>580000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>576000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>601000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>617000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>586000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>528000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>595000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>606000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>564000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>467000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>552000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>531000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>528000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>524000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>503000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>550000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>459000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>418000</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4565,80 +4702,83 @@
       <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1524000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1469000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1546000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1542000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1579000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1546000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1494000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1532000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1511000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1446000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1538000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1645000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1662000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1755000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1494000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1551000</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1559000</v>
       </c>
       <c r="U60" s="3">
         <v>1559000</v>
       </c>
       <c r="V60" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="W60" s="3">
         <v>1489000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1400000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1233000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1130000</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4648,71 +4788,74 @@
       <c r="AC60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1400000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1402000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1404000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1407000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1410000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1412000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1220000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1222000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1184000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1186000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1155000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1006000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1011000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1149000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1158000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1165000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1169000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1174000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1179000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4731,80 +4874,83 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>950000</v>
+      </c>
+      <c r="E62" s="3">
         <v>935000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>924000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>908000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>913000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>933000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>926000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>887000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>922000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>914000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>912000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>924000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1013000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>998000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>862000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>874000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>844000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>839000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>819000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>771000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>657000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>794000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>763000</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4814,8 +4960,11 @@
       <c r="AC62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,80 +5218,83 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3814000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3859000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3795000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3858000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3862000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3922000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3884000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3601000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3676000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3609000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3544000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3617000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3664000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3671000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3766000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3526000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3560000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3567000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3552000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3439000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2057000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2027000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1893000</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
@@ -5146,8 +5304,11 @@
       <c r="AC66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,71 +5680,74 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>728000</v>
+      </c>
+      <c r="E72" s="3">
         <v>707000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>657000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>600000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>561000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>498000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>404000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>317000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>250000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>182000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>124000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>75000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>38000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>39000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>50000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5592,8 +5766,11 @@
       <c r="AC72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,80 +6024,83 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2645000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2677000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2604000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2529000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2400000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2394000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2361000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2252000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2158000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2103000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2032000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1993000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1605000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1495000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1521000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1602000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1573000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1593000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1592000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1533000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2685000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2480000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2589000</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5924,8 +6110,11 @@
       <c r="AC76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E81" s="3">
         <v>50000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>57000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>63000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>94000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>87000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>67000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>68000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>58000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>49000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>59000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>75000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-21000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>311000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>33000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>45000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-449000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>23000</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>16000</v>
       </c>
       <c r="AC81" s="3">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,79 +6407,80 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E83" s="3">
         <v>25000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>22000</v>
       </c>
       <c r="L83" s="3">
         <v>22000</v>
       </c>
       <c r="M83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="N83" s="3">
         <v>23000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>22000</v>
       </c>
       <c r="O83" s="3">
         <v>22000</v>
       </c>
       <c r="P83" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q83" s="3">
         <v>21000</v>
       </c>
       <c r="R83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="S83" s="3">
         <v>25000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>17000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>20000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>17000</v>
       </c>
       <c r="AA83" s="3">
         <v>17000</v>
@@ -6290,10 +6489,13 @@
         <v>17000</v>
       </c>
       <c r="AC83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="AD83" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E89" s="3">
         <v>121000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>139000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-59000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>112000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>104000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>94000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>152000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>145000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-74000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>93000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-33000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-27000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>87000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>117000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>132000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>126000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-143000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>111000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>30000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-51000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-40000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-57000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-37000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-665000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-34000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-39000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-15000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7417,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7267,8 +7501,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,253 +7759,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9000</v>
+        <v>-29000</v>
       </c>
       <c r="E100" s="3">
         <v>-9000</v>
       </c>
       <c r="F100" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-12000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>189000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>118000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-106000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-108000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>349000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-75000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>53000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-23000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>19000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>15000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-102000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-99000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>157000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-88000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-20000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-13000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2000</v>
       </c>
       <c r="P101" s="3">
         <v>2000</v>
       </c>
       <c r="Q101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R101" s="3">
         <v>-8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>2000</v>
       </c>
       <c r="AB101" s="3">
         <v>2000</v>
       </c>
       <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>87000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>74000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-535000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>93000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>107000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>71000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>257000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-102000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>24000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>216000</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-10000</v>
       </c>
       <c r="S102" s="3">
         <v>-10000</v>
       </c>
       <c r="T102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="U102" s="3">
         <v>-70000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-53000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>81000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>91000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>18000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>19000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>10000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-3000</v>
       </c>
     </row>
